--- a/Code/Results/Cases/Case_0_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_62/res_line/loading_percent.xlsx
@@ -415,16 +415,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.929390557362247</v>
+        <v>7.929390557362262</v>
       </c>
       <c r="D2">
-        <v>10.45478560429009</v>
+        <v>10.4547856042901</v>
       </c>
       <c r="E2">
-        <v>9.491845901567251</v>
+        <v>9.491845901567244</v>
       </c>
       <c r="F2">
-        <v>68.95447048519927</v>
+        <v>68.95447048519931</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>4.574712483679232</v>
+        <v>4.574712483679231</v>
       </c>
       <c r="J2">
         <v>65.22028206650782</v>
@@ -453,16 +453,16 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.22778577707915</v>
+        <v>7.227785777079123</v>
       </c>
       <c r="D3">
-        <v>9.359332872800335</v>
+        <v>9.359332872800245</v>
       </c>
       <c r="E3">
-        <v>8.8764373921169</v>
+        <v>8.876437392116843</v>
       </c>
       <c r="F3">
-        <v>62.46495359891207</v>
+        <v>62.46495359891202</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,16 +471,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>4.75837602674857</v>
+        <v>4.758376026748536</v>
       </c>
       <c r="J3">
-        <v>59.76466018250246</v>
+        <v>59.7646601825024</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>36.71038227848445</v>
+        <v>36.71038227848443</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,16 +491,16 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.798767978240496</v>
+        <v>6.798767978240554</v>
       </c>
       <c r="D4">
-        <v>8.708339449290207</v>
+        <v>8.708339449290179</v>
       </c>
       <c r="E4">
-        <v>8.502697750913779</v>
+        <v>8.502697750913679</v>
       </c>
       <c r="F4">
-        <v>58.62573252942362</v>
+        <v>58.62573252942336</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,16 +509,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>4.868305539006843</v>
+        <v>4.86830553900681</v>
       </c>
       <c r="J4">
-        <v>56.39137854589285</v>
+        <v>56.39137854589274</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>34.63689347705975</v>
+        <v>34.6368934770597</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,16 +529,16 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.623179286510915</v>
+        <v>6.62317928651099</v>
       </c>
       <c r="D5">
-        <v>8.446018263457834</v>
+        <v>8.446018263457923</v>
       </c>
       <c r="E5">
-        <v>8.350419421191823</v>
+        <v>8.350419421191814</v>
       </c>
       <c r="F5">
-        <v>57.08483907041836</v>
+        <v>57.0848390704186</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,16 +547,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>4.912699131509361</v>
+        <v>4.912699131509358</v>
       </c>
       <c r="J5">
-        <v>55.00295926350861</v>
+        <v>55.00295926350864</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>33.78336739099416</v>
+        <v>33.78336739099417</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,16 +567,16 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.593948818393088</v>
+        <v>6.593948818393145</v>
       </c>
       <c r="D6">
-        <v>8.40258217608641</v>
+        <v>8.402582176086439</v>
       </c>
       <c r="E6">
-        <v>8.325112613676632</v>
+        <v>8.325112613676735</v>
       </c>
       <c r="F6">
-        <v>56.83011259128416</v>
+        <v>56.83011259128433</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,16 +585,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>4.920053762526706</v>
+        <v>4.920053762526806</v>
       </c>
       <c r="J6">
-        <v>54.77139721443475</v>
+        <v>54.77139721443486</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>33.64100966920102</v>
+        <v>33.64100966920106</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,16 +605,16 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.79640432132425</v>
+        <v>6.796404321324294</v>
       </c>
       <c r="D7">
-        <v>8.704792353897119</v>
+        <v>8.704792353897073</v>
       </c>
       <c r="E7">
-        <v>8.500645036554284</v>
+        <v>8.500645036554262</v>
       </c>
       <c r="F7">
-        <v>58.60486945090349</v>
+        <v>58.60486945090313</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,16 +623,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>4.868905532763692</v>
+        <v>4.86890553276366</v>
       </c>
       <c r="J7">
-        <v>56.3727182101405</v>
+        <v>56.37271821014043</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>34.62542247588429</v>
+        <v>34.62542247588426</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,16 +643,16 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.686239825833523</v>
+        <v>7.686239825833488</v>
       </c>
       <c r="D8">
-        <v>10.07078552576726</v>
+        <v>10.07078552576712</v>
       </c>
       <c r="E8">
-        <v>9.278043092638976</v>
+        <v>9.278043092638935</v>
       </c>
       <c r="F8">
-        <v>66.67713559780456</v>
+        <v>66.67713559780486</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>4.638848131762701</v>
+        <v>4.638848131762733</v>
       </c>
       <c r="J8">
-        <v>63.33838566955465</v>
+        <v>63.33838566955464</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>38.90675525569436</v>
+        <v>38.90675525569438</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,16 +681,16 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.538791539942208</v>
+        <v>9.538791539942327</v>
       </c>
       <c r="D9">
-        <v>13.11716607552392</v>
+        <v>13.117166075524</v>
       </c>
       <c r="E9">
-        <v>10.92026674123425</v>
+        <v>10.92026674123426</v>
       </c>
       <c r="F9">
-        <v>84.7220762563005</v>
+        <v>84.72207625630075</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>4.143040507833557</v>
+        <v>4.143040507833556</v>
       </c>
       <c r="J9">
-        <v>77.42145974504065</v>
+        <v>77.42145974504085</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>47.55725428847487</v>
+        <v>47.557254288475</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,16 +719,16 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>11.30968553079485</v>
+        <v>11.30968553079504</v>
       </c>
       <c r="D10">
-        <v>16.31466473424959</v>
+        <v>16.31466473424958</v>
       </c>
       <c r="E10">
-        <v>12.53768343986305</v>
+        <v>12.53768343986301</v>
       </c>
       <c r="F10">
-        <v>103.3645742903954</v>
+        <v>103.3645742903958</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>3.684295148454574</v>
       </c>
       <c r="J10">
-        <v>90.26821299410346</v>
+        <v>90.26821299410371</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>55.42907503467421</v>
+        <v>55.42907503467438</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,16 +757,16 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>12.85782489369991</v>
+        <v>12.85782489369972</v>
       </c>
       <c r="D11">
-        <v>19.39570812655827</v>
+        <v>19.39570812655802</v>
       </c>
       <c r="E11">
-        <v>14.06453797335366</v>
+        <v>14.06453797335337</v>
       </c>
       <c r="F11">
-        <v>120.7584599795371</v>
+        <v>120.7584599795353</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,16 +775,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3.372921933424257</v>
+        <v>3.372921933424188</v>
       </c>
       <c r="J11">
-        <v>100.914377779006</v>
+        <v>100.9143777790049</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>61.90482824612285</v>
+        <v>61.90482824612224</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>12.85782489369991</v>
+        <v>12.85782489369972</v>
       </c>
       <c r="D12">
-        <v>19.39570812655827</v>
+        <v>19.39570812655802</v>
       </c>
       <c r="E12">
-        <v>14.06453797335366</v>
+        <v>14.06453797335337</v>
       </c>
       <c r="F12">
-        <v>120.7584599795371</v>
+        <v>120.7584599795353</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,16 +813,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>3.372921933424257</v>
+        <v>3.372921933424188</v>
       </c>
       <c r="J12">
-        <v>100.914377779006</v>
+        <v>100.9143777790049</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>61.90482824612285</v>
+        <v>61.90482824612224</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,16 +833,16 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>12.85782489369991</v>
+        <v>12.85782489369972</v>
       </c>
       <c r="D13">
-        <v>19.39570812655827</v>
+        <v>19.39570812655802</v>
       </c>
       <c r="E13">
-        <v>14.06453797335366</v>
+        <v>14.06453797335337</v>
       </c>
       <c r="F13">
-        <v>120.7584599795371</v>
+        <v>120.7584599795353</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>3.372921933424257</v>
+        <v>3.372921933424188</v>
       </c>
       <c r="J13">
-        <v>100.914377779006</v>
+        <v>100.9143777790049</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>61.90482824612285</v>
+        <v>61.90482824612224</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>13.85603037243757</v>
+        <v>13.85603037243191</v>
       </c>
       <c r="D14">
-        <v>21.57300996505151</v>
+        <v>21.57300996503831</v>
       </c>
       <c r="E14">
-        <v>15.19028693758707</v>
+        <v>15.19028693758006</v>
       </c>
       <c r="F14">
-        <v>132.5652554494918</v>
+        <v>132.5652554494178</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>3.296128901577096</v>
+        <v>3.296128901577471</v>
       </c>
       <c r="J14">
-        <v>107.4530995849411</v>
+        <v>107.4530995849005</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>65.82457848656362</v>
+        <v>65.82457848653928</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,16 +909,16 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>14.28782251802082</v>
+        <v>14.28782251802075</v>
       </c>
       <c r="D15">
-        <v>22.57757258910025</v>
+        <v>22.57757258910036</v>
       </c>
       <c r="E15">
-        <v>15.74277918599317</v>
+        <v>15.74277918599316</v>
       </c>
       <c r="F15">
-        <v>137.8388505231846</v>
+        <v>137.8388505231842</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,16 +927,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3.32051072993594</v>
+        <v>3.320510729935907</v>
       </c>
       <c r="J15">
-        <v>110.1999196658645</v>
+        <v>110.1999196658643</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>67.44489297139545</v>
+        <v>67.44489297139535</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>15.35103740921004</v>
+        <v>15.35103740921005</v>
       </c>
       <c r="D16">
-        <v>25.29313049062529</v>
+        <v>25.29313049062527</v>
       </c>
       <c r="E16">
-        <v>17.42495181233736</v>
+        <v>17.42495181233734</v>
       </c>
       <c r="F16">
-        <v>151.3872454769814</v>
+        <v>151.3872454769812</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3.645323772550674</v>
+        <v>3.645323772550668</v>
       </c>
       <c r="J16">
-        <v>116.779337416144</v>
+        <v>116.7793374161439</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>71.20018676161588</v>
+        <v>71.20018676161584</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,13 +985,13 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>15.74286786515283</v>
+        <v>15.74286786515266</v>
       </c>
       <c r="D17">
-        <v>26.4293461870497</v>
+        <v>26.42934618704973</v>
       </c>
       <c r="E17">
-        <v>18.24811548024072</v>
+        <v>18.2481154802407</v>
       </c>
       <c r="F17">
         <v>156.6751870696255</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.916633689126732</v>
+        <v>3.91663368912669</v>
       </c>
       <c r="J17">
         <v>119.1665964281187</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>72.48493780164509</v>
+        <v>72.4849378016451</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>15.93006665446082</v>
+        <v>15.93006665446075</v>
       </c>
       <c r="D18">
-        <v>27.0147738012312</v>
+        <v>27.01477380123109</v>
       </c>
       <c r="E18">
-        <v>18.70875868010909</v>
+        <v>18.70875868010903</v>
       </c>
       <c r="F18">
         <v>159.2926483891936</v>
@@ -1041,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>4.091596154579307</v>
+        <v>4.091596154579333</v>
       </c>
       <c r="J18">
-        <v>120.3121925730356</v>
+        <v>120.3121925730355</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>73.07663829251319</v>
+        <v>73.07663829251317</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,16 +1061,16 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>15.98852445122772</v>
+        <v>15.98852445122764</v>
       </c>
       <c r="D19">
-        <v>27.20498355231514</v>
+        <v>27.20498355231512</v>
       </c>
       <c r="E19">
-        <v>18.86438354999808</v>
+        <v>18.86438354999813</v>
       </c>
       <c r="F19">
-        <v>160.1259435371666</v>
+        <v>160.1259435371667</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>4.153777772846262</v>
+        <v>4.153777772846292</v>
       </c>
       <c r="J19">
         <v>120.672005363685</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>73.25827725182086</v>
+        <v>73.25827725182077</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>15.70557401255977</v>
+        <v>15.70557401256003</v>
       </c>
       <c r="D20">
-        <v>26.31648830122204</v>
+        <v>26.31648830122207</v>
       </c>
       <c r="E20">
-        <v>18.16234232238064</v>
+        <v>18.16234232238061</v>
       </c>
       <c r="F20">
-        <v>156.1618184967938</v>
+        <v>156.1618184967939</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.88571204150861</v>
+        <v>3.885712041508586</v>
       </c>
       <c r="J20">
-        <v>118.9391389765276</v>
+        <v>118.9391389765277</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1137,16 +1137,16 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>15.70557401255977</v>
+        <v>15.70557401256003</v>
       </c>
       <c r="D21">
-        <v>26.31648830122204</v>
+        <v>26.31648830122207</v>
       </c>
       <c r="E21">
-        <v>18.16234232238064</v>
+        <v>18.16234232238061</v>
       </c>
       <c r="F21">
-        <v>156.1618184967938</v>
+        <v>156.1618184967939</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,10 +1155,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>3.88571204150861</v>
+        <v>3.885712041508586</v>
       </c>
       <c r="J21">
-        <v>118.9391389765276</v>
+        <v>118.9391389765277</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1175,16 +1175,16 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>15.70557401255977</v>
+        <v>15.70557401256003</v>
       </c>
       <c r="D22">
-        <v>26.31648830122204</v>
+        <v>26.31648830122207</v>
       </c>
       <c r="E22">
-        <v>18.16234232238064</v>
+        <v>18.16234232238061</v>
       </c>
       <c r="F22">
-        <v>156.1618184967938</v>
+        <v>156.1618184967939</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>3.88571204150861</v>
+        <v>3.885712041508586</v>
       </c>
       <c r="J22">
-        <v>118.9391389765276</v>
+        <v>118.9391389765277</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1213,16 +1213,16 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>15.70557401255977</v>
+        <v>15.70557401256003</v>
       </c>
       <c r="D23">
-        <v>26.31648830122204</v>
+        <v>26.31648830122207</v>
       </c>
       <c r="E23">
-        <v>18.16234232238064</v>
+        <v>18.16234232238061</v>
       </c>
       <c r="F23">
-        <v>156.1618184967938</v>
+        <v>156.1618184967939</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3.88571204150861</v>
+        <v>3.885712041508586</v>
       </c>
       <c r="J23">
-        <v>118.9391389765276</v>
+        <v>118.9391389765277</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1251,16 +1251,16 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>15.70557401255977</v>
+        <v>15.70557401256003</v>
       </c>
       <c r="D24">
-        <v>26.31648830122204</v>
+        <v>26.31648830122207</v>
       </c>
       <c r="E24">
-        <v>18.16234232238064</v>
+        <v>18.16234232238061</v>
       </c>
       <c r="F24">
-        <v>156.1618184967938</v>
+        <v>156.1618184967939</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,10 +1269,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.88571204150861</v>
+        <v>3.885712041508586</v>
       </c>
       <c r="J24">
-        <v>118.9391389765276</v>
+        <v>118.9391389765277</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1289,16 +1289,16 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>15.70557401255977</v>
+        <v>15.70557401256003</v>
       </c>
       <c r="D25">
-        <v>26.31648830122204</v>
+        <v>26.31648830122207</v>
       </c>
       <c r="E25">
-        <v>18.16234232238064</v>
+        <v>18.16234232238061</v>
       </c>
       <c r="F25">
-        <v>156.1618184967938</v>
+        <v>156.1618184967939</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.88571204150861</v>
+        <v>3.885712041508586</v>
       </c>
       <c r="J25">
-        <v>118.9391389765276</v>
+        <v>118.9391389765277</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_62/res_line/loading_percent.xlsx
@@ -415,16 +415,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.929390557362262</v>
+        <v>7.929390557362247</v>
       </c>
       <c r="D2">
-        <v>10.4547856042901</v>
+        <v>10.45478560429009</v>
       </c>
       <c r="E2">
-        <v>9.491845901567244</v>
+        <v>9.491845901567251</v>
       </c>
       <c r="F2">
-        <v>68.95447048519931</v>
+        <v>68.95447048519927</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>4.574712483679231</v>
+        <v>4.574712483679232</v>
       </c>
       <c r="J2">
         <v>65.22028206650782</v>
@@ -453,16 +453,16 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.227785777079123</v>
+        <v>7.22778577707915</v>
       </c>
       <c r="D3">
-        <v>9.359332872800245</v>
+        <v>9.359332872800335</v>
       </c>
       <c r="E3">
-        <v>8.876437392116843</v>
+        <v>8.8764373921169</v>
       </c>
       <c r="F3">
-        <v>62.46495359891202</v>
+        <v>62.46495359891207</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,16 +471,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>4.758376026748536</v>
+        <v>4.75837602674857</v>
       </c>
       <c r="J3">
-        <v>59.7646601825024</v>
+        <v>59.76466018250246</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>36.71038227848443</v>
+        <v>36.71038227848445</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,16 +491,16 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.798767978240554</v>
+        <v>6.798767978240496</v>
       </c>
       <c r="D4">
-        <v>8.708339449290179</v>
+        <v>8.708339449290207</v>
       </c>
       <c r="E4">
-        <v>8.502697750913679</v>
+        <v>8.502697750913779</v>
       </c>
       <c r="F4">
-        <v>58.62573252942336</v>
+        <v>58.62573252942362</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,16 +509,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>4.86830553900681</v>
+        <v>4.868305539006843</v>
       </c>
       <c r="J4">
-        <v>56.39137854589274</v>
+        <v>56.39137854589285</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>34.6368934770597</v>
+        <v>34.63689347705975</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,16 +529,16 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.62317928651099</v>
+        <v>6.623179286510915</v>
       </c>
       <c r="D5">
-        <v>8.446018263457923</v>
+        <v>8.446018263457834</v>
       </c>
       <c r="E5">
-        <v>8.350419421191814</v>
+        <v>8.350419421191823</v>
       </c>
       <c r="F5">
-        <v>57.0848390704186</v>
+        <v>57.08483907041836</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,16 +547,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>4.912699131509358</v>
+        <v>4.912699131509361</v>
       </c>
       <c r="J5">
-        <v>55.00295926350864</v>
+        <v>55.00295926350861</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>33.78336739099417</v>
+        <v>33.78336739099416</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,16 +567,16 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.593948818393145</v>
+        <v>6.593948818393088</v>
       </c>
       <c r="D6">
-        <v>8.402582176086439</v>
+        <v>8.40258217608641</v>
       </c>
       <c r="E6">
-        <v>8.325112613676735</v>
+        <v>8.325112613676632</v>
       </c>
       <c r="F6">
-        <v>56.83011259128433</v>
+        <v>56.83011259128416</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,16 +585,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>4.920053762526806</v>
+        <v>4.920053762526706</v>
       </c>
       <c r="J6">
-        <v>54.77139721443486</v>
+        <v>54.77139721443475</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>33.64100966920106</v>
+        <v>33.64100966920102</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,16 +605,16 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.796404321324294</v>
+        <v>6.79640432132425</v>
       </c>
       <c r="D7">
-        <v>8.704792353897073</v>
+        <v>8.704792353897119</v>
       </c>
       <c r="E7">
-        <v>8.500645036554262</v>
+        <v>8.500645036554284</v>
       </c>
       <c r="F7">
-        <v>58.60486945090313</v>
+        <v>58.60486945090349</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,16 +623,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>4.86890553276366</v>
+        <v>4.868905532763692</v>
       </c>
       <c r="J7">
-        <v>56.37271821014043</v>
+        <v>56.3727182101405</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>34.62542247588426</v>
+        <v>34.62542247588429</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,16 +643,16 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.686239825833488</v>
+        <v>7.686239825833523</v>
       </c>
       <c r="D8">
-        <v>10.07078552576712</v>
+        <v>10.07078552576726</v>
       </c>
       <c r="E8">
-        <v>9.278043092638935</v>
+        <v>9.278043092638976</v>
       </c>
       <c r="F8">
-        <v>66.67713559780486</v>
+        <v>66.67713559780456</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>4.638848131762733</v>
+        <v>4.638848131762701</v>
       </c>
       <c r="J8">
-        <v>63.33838566955464</v>
+        <v>63.33838566955465</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>38.90675525569438</v>
+        <v>38.90675525569436</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,16 +681,16 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.538791539942327</v>
+        <v>9.538791539942208</v>
       </c>
       <c r="D9">
-        <v>13.117166075524</v>
+        <v>13.11716607552392</v>
       </c>
       <c r="E9">
-        <v>10.92026674123426</v>
+        <v>10.92026674123425</v>
       </c>
       <c r="F9">
-        <v>84.72207625630075</v>
+        <v>84.7220762563005</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>4.143040507833556</v>
+        <v>4.143040507833557</v>
       </c>
       <c r="J9">
-        <v>77.42145974504085</v>
+        <v>77.42145974504065</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>47.557254288475</v>
+        <v>47.55725428847487</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,16 +719,16 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>11.30968553079504</v>
+        <v>11.30968553079485</v>
       </c>
       <c r="D10">
-        <v>16.31466473424958</v>
+        <v>16.31466473424959</v>
       </c>
       <c r="E10">
-        <v>12.53768343986301</v>
+        <v>12.53768343986305</v>
       </c>
       <c r="F10">
-        <v>103.3645742903958</v>
+        <v>103.3645742903954</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>3.684295148454574</v>
       </c>
       <c r="J10">
-        <v>90.26821299410371</v>
+        <v>90.26821299410346</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>55.42907503467438</v>
+        <v>55.42907503467421</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,16 +757,16 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>12.85782489369972</v>
+        <v>12.85782489369991</v>
       </c>
       <c r="D11">
-        <v>19.39570812655802</v>
+        <v>19.39570812655827</v>
       </c>
       <c r="E11">
-        <v>14.06453797335337</v>
+        <v>14.06453797335366</v>
       </c>
       <c r="F11">
-        <v>120.7584599795353</v>
+        <v>120.7584599795371</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,16 +775,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3.372921933424188</v>
+        <v>3.372921933424257</v>
       </c>
       <c r="J11">
-        <v>100.9143777790049</v>
+        <v>100.914377779006</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>61.90482824612224</v>
+        <v>61.90482824612285</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>12.85782489369972</v>
+        <v>12.85782489369991</v>
       </c>
       <c r="D12">
-        <v>19.39570812655802</v>
+        <v>19.39570812655827</v>
       </c>
       <c r="E12">
-        <v>14.06453797335337</v>
+        <v>14.06453797335366</v>
       </c>
       <c r="F12">
-        <v>120.7584599795353</v>
+        <v>120.7584599795371</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,16 +813,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>3.372921933424188</v>
+        <v>3.372921933424257</v>
       </c>
       <c r="J12">
-        <v>100.9143777790049</v>
+        <v>100.914377779006</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>61.90482824612224</v>
+        <v>61.90482824612285</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,16 +833,16 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>12.85782489369972</v>
+        <v>12.85782489369991</v>
       </c>
       <c r="D13">
-        <v>19.39570812655802</v>
+        <v>19.39570812655827</v>
       </c>
       <c r="E13">
-        <v>14.06453797335337</v>
+        <v>14.06453797335366</v>
       </c>
       <c r="F13">
-        <v>120.7584599795353</v>
+        <v>120.7584599795371</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>3.372921933424188</v>
+        <v>3.372921933424257</v>
       </c>
       <c r="J13">
-        <v>100.9143777790049</v>
+        <v>100.914377779006</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>61.90482824612224</v>
+        <v>61.90482824612285</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>13.85603037243191</v>
+        <v>13.85603037243757</v>
       </c>
       <c r="D14">
-        <v>21.57300996503831</v>
+        <v>21.57300996505151</v>
       </c>
       <c r="E14">
-        <v>15.19028693758006</v>
+        <v>15.19028693758707</v>
       </c>
       <c r="F14">
-        <v>132.5652554494178</v>
+        <v>132.5652554494918</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>3.296128901577471</v>
+        <v>3.296128901577096</v>
       </c>
       <c r="J14">
-        <v>107.4530995849005</v>
+        <v>107.4530995849411</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>65.82457848653928</v>
+        <v>65.82457848656362</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,16 +909,16 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>14.28782251802075</v>
+        <v>14.28782251802082</v>
       </c>
       <c r="D15">
-        <v>22.57757258910036</v>
+        <v>22.57757258910025</v>
       </c>
       <c r="E15">
-        <v>15.74277918599316</v>
+        <v>15.74277918599317</v>
       </c>
       <c r="F15">
-        <v>137.8388505231842</v>
+        <v>137.8388505231846</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,16 +927,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3.320510729935907</v>
+        <v>3.32051072993594</v>
       </c>
       <c r="J15">
-        <v>110.1999196658643</v>
+        <v>110.1999196658645</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>67.44489297139535</v>
+        <v>67.44489297139545</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>15.35103740921005</v>
+        <v>15.35103740921004</v>
       </c>
       <c r="D16">
-        <v>25.29313049062527</v>
+        <v>25.29313049062529</v>
       </c>
       <c r="E16">
-        <v>17.42495181233734</v>
+        <v>17.42495181233736</v>
       </c>
       <c r="F16">
-        <v>151.3872454769812</v>
+        <v>151.3872454769814</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3.645323772550668</v>
+        <v>3.645323772550674</v>
       </c>
       <c r="J16">
-        <v>116.7793374161439</v>
+        <v>116.779337416144</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>71.20018676161584</v>
+        <v>71.20018676161588</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,13 +985,13 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>15.74286786515266</v>
+        <v>15.74286786515283</v>
       </c>
       <c r="D17">
-        <v>26.42934618704973</v>
+        <v>26.4293461870497</v>
       </c>
       <c r="E17">
-        <v>18.2481154802407</v>
+        <v>18.24811548024072</v>
       </c>
       <c r="F17">
         <v>156.6751870696255</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.91663368912669</v>
+        <v>3.916633689126732</v>
       </c>
       <c r="J17">
         <v>119.1665964281187</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>72.4849378016451</v>
+        <v>72.48493780164509</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>15.93006665446075</v>
+        <v>15.93006665446082</v>
       </c>
       <c r="D18">
-        <v>27.01477380123109</v>
+        <v>27.0147738012312</v>
       </c>
       <c r="E18">
-        <v>18.70875868010903</v>
+        <v>18.70875868010909</v>
       </c>
       <c r="F18">
         <v>159.2926483891936</v>
@@ -1041,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>4.091596154579333</v>
+        <v>4.091596154579307</v>
       </c>
       <c r="J18">
-        <v>120.3121925730355</v>
+        <v>120.3121925730356</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>73.07663829251317</v>
+        <v>73.07663829251319</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,16 +1061,16 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>15.98852445122764</v>
+        <v>15.98852445122772</v>
       </c>
       <c r="D19">
-        <v>27.20498355231512</v>
+        <v>27.20498355231514</v>
       </c>
       <c r="E19">
-        <v>18.86438354999813</v>
+        <v>18.86438354999808</v>
       </c>
       <c r="F19">
-        <v>160.1259435371667</v>
+        <v>160.1259435371666</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>4.153777772846292</v>
+        <v>4.153777772846262</v>
       </c>
       <c r="J19">
         <v>120.672005363685</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>73.25827725182077</v>
+        <v>73.25827725182086</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>15.70557401256003</v>
+        <v>15.70557401255977</v>
       </c>
       <c r="D20">
-        <v>26.31648830122207</v>
+        <v>26.31648830122204</v>
       </c>
       <c r="E20">
-        <v>18.16234232238061</v>
+        <v>18.16234232238064</v>
       </c>
       <c r="F20">
-        <v>156.1618184967939</v>
+        <v>156.1618184967938</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.885712041508586</v>
+        <v>3.88571204150861</v>
       </c>
       <c r="J20">
-        <v>118.9391389765277</v>
+        <v>118.9391389765276</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1137,16 +1137,16 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>15.70557401256003</v>
+        <v>15.70557401255977</v>
       </c>
       <c r="D21">
-        <v>26.31648830122207</v>
+        <v>26.31648830122204</v>
       </c>
       <c r="E21">
-        <v>18.16234232238061</v>
+        <v>18.16234232238064</v>
       </c>
       <c r="F21">
-        <v>156.1618184967939</v>
+        <v>156.1618184967938</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,10 +1155,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>3.885712041508586</v>
+        <v>3.88571204150861</v>
       </c>
       <c r="J21">
-        <v>118.9391389765277</v>
+        <v>118.9391389765276</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1175,16 +1175,16 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>15.70557401256003</v>
+        <v>15.70557401255977</v>
       </c>
       <c r="D22">
-        <v>26.31648830122207</v>
+        <v>26.31648830122204</v>
       </c>
       <c r="E22">
-        <v>18.16234232238061</v>
+        <v>18.16234232238064</v>
       </c>
       <c r="F22">
-        <v>156.1618184967939</v>
+        <v>156.1618184967938</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>3.885712041508586</v>
+        <v>3.88571204150861</v>
       </c>
       <c r="J22">
-        <v>118.9391389765277</v>
+        <v>118.9391389765276</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1213,16 +1213,16 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>15.70557401256003</v>
+        <v>15.70557401255977</v>
       </c>
       <c r="D23">
-        <v>26.31648830122207</v>
+        <v>26.31648830122204</v>
       </c>
       <c r="E23">
-        <v>18.16234232238061</v>
+        <v>18.16234232238064</v>
       </c>
       <c r="F23">
-        <v>156.1618184967939</v>
+        <v>156.1618184967938</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3.885712041508586</v>
+        <v>3.88571204150861</v>
       </c>
       <c r="J23">
-        <v>118.9391389765277</v>
+        <v>118.9391389765276</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1251,16 +1251,16 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>15.70557401256003</v>
+        <v>15.70557401255977</v>
       </c>
       <c r="D24">
-        <v>26.31648830122207</v>
+        <v>26.31648830122204</v>
       </c>
       <c r="E24">
-        <v>18.16234232238061</v>
+        <v>18.16234232238064</v>
       </c>
       <c r="F24">
-        <v>156.1618184967939</v>
+        <v>156.1618184967938</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,10 +1269,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.885712041508586</v>
+        <v>3.88571204150861</v>
       </c>
       <c r="J24">
-        <v>118.9391389765277</v>
+        <v>118.9391389765276</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1289,16 +1289,16 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>15.70557401256003</v>
+        <v>15.70557401255977</v>
       </c>
       <c r="D25">
-        <v>26.31648830122207</v>
+        <v>26.31648830122204</v>
       </c>
       <c r="E25">
-        <v>18.16234232238061</v>
+        <v>18.16234232238064</v>
       </c>
       <c r="F25">
-        <v>156.1618184967939</v>
+        <v>156.1618184967938</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.885712041508586</v>
+        <v>3.88571204150861</v>
       </c>
       <c r="J25">
-        <v>118.9391389765277</v>
+        <v>118.9391389765276</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_62/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.929390557362247</v>
+        <v>7.886582388721751</v>
       </c>
       <c r="D2">
-        <v>10.45478560429009</v>
+        <v>10.30903299935098</v>
       </c>
       <c r="E2">
-        <v>9.491845901567251</v>
+        <v>9.31789690278697</v>
       </c>
       <c r="F2">
-        <v>68.95447048519927</v>
+        <v>68.49724344870248</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.891646544571468</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>4.574712483679232</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>65.22028206650782</v>
+        <v>4.526936396550275</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>64.82974882350133</v>
       </c>
       <c r="L2">
-        <v>40.0632082746817</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>39.82773437035675</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.22778577707915</v>
+        <v>7.191148434515234</v>
       </c>
       <c r="D3">
-        <v>9.359332872800335</v>
+        <v>9.234050987613942</v>
       </c>
       <c r="E3">
-        <v>8.8764373921169</v>
+        <v>8.701730570826671</v>
       </c>
       <c r="F3">
-        <v>62.46495359891207</v>
+        <v>62.13549468162001</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.934263667901428</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>4.75837602674857</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>59.76466018250246</v>
+        <v>4.70803305898965</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>59.42174653333571</v>
       </c>
       <c r="L3">
-        <v>36.71038227848445</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>36.50078595096284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.798767978240496</v>
+        <v>6.765427237504351</v>
       </c>
       <c r="D4">
-        <v>8.708339449290207</v>
+        <v>8.595454594020685</v>
       </c>
       <c r="E4">
-        <v>8.502697750913779</v>
+        <v>8.326438418705735</v>
       </c>
       <c r="F4">
-        <v>58.62573252942362</v>
+        <v>58.37424797382735</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.95922118508895</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>4.868305539006843</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>56.39137854589285</v>
+        <v>4.816505324695571</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>56.07524645132096</v>
       </c>
       <c r="L4">
-        <v>34.63689347705975</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>34.44147515055135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.623179286510915</v>
+        <v>6.591103766336301</v>
       </c>
       <c r="D5">
-        <v>8.446018263457834</v>
+        <v>8.338260303104061</v>
       </c>
       <c r="E5">
-        <v>8.350419421191823</v>
+        <v>8.17329566168036</v>
       </c>
       <c r="F5">
-        <v>57.08483907041836</v>
+        <v>56.86564424858429</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.96919684439098</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>4.912699131509361</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>55.00295926350861</v>
+        <v>4.860325221604644</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>54.69743699091447</v>
       </c>
       <c r="L5">
-        <v>33.78336739099416</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>33.59347756014562</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.593948818393088</v>
+        <v>6.562079633034577</v>
       </c>
       <c r="D6">
-        <v>8.40258217608641</v>
+        <v>8.295682815967455</v>
       </c>
       <c r="E6">
-        <v>8.325112613676632</v>
+        <v>8.147832148488781</v>
       </c>
       <c r="F6">
-        <v>56.83011259128416</v>
+        <v>56.61632475310154</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1.970844090430604</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>4.920053762526706</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>54.77139721443475</v>
+        <v>4.86758558890633</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>54.46762520228573</v>
       </c>
       <c r="L6">
-        <v>33.64100966920102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>33.45202667608422</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.79640432132425</v>
+        <v>6.763080914593044</v>
       </c>
       <c r="D7">
-        <v>8.704792353897119</v>
+        <v>8.591976209979808</v>
       </c>
       <c r="E7">
-        <v>8.500645036554284</v>
+        <v>8.324374945189389</v>
       </c>
       <c r="F7">
-        <v>58.60486945090349</v>
+        <v>58.35381761626675</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1.959356389468838</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>4.868905532763692</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>56.3727182101405</v>
+        <v>4.817097510085673</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>56.05673011120209</v>
       </c>
       <c r="L7">
-        <v>34.62542247588429</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>34.43007953426344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.686239825833523</v>
+        <v>7.645696921844144</v>
       </c>
       <c r="D8">
-        <v>10.07078552576726</v>
+        <v>9.932213948295257</v>
       </c>
       <c r="E8">
-        <v>9.278043092638976</v>
+        <v>9.104091891094154</v>
       </c>
       <c r="F8">
-        <v>66.67713559780456</v>
+        <v>66.26453696934728</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.906670885830561</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>4.638848131762701</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>63.33838566955465</v>
+        <v>4.590155081029672</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>62.96502121764406</v>
       </c>
       <c r="L8">
-        <v>38.90675525569436</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>38.68069864099735</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.538791539942208</v>
+        <v>9.475598798160702</v>
       </c>
       <c r="D9">
-        <v>13.11716607552392</v>
+        <v>12.91612499206779</v>
       </c>
       <c r="E9">
-        <v>10.92026674123425</v>
+        <v>10.73766139886207</v>
       </c>
       <c r="F9">
-        <v>84.7220762563005</v>
+        <v>83.93032282823573</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.785317344122591</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>4.143040507833557</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>77.42145974504065</v>
+        <v>4.102241462227767</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>76.88559964663044</v>
       </c>
       <c r="L9">
-        <v>47.55725428847487</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>47.23941182782156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>11.30968553079485</v>
+        <v>11.19563942359221</v>
       </c>
       <c r="D10">
-        <v>16.31466473424959</v>
+        <v>15.99664197608723</v>
       </c>
       <c r="E10">
-        <v>12.53768343986305</v>
+        <v>12.30969915236155</v>
       </c>
       <c r="F10">
-        <v>103.3645742903954</v>
+        <v>101.9043925892275</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.655110039377951</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3.684295148454574</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>90.26821299410346</v>
+        <v>3.654417129369584</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>89.39240830029195</v>
       </c>
       <c r="L10">
-        <v>55.42907503467421</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>54.91113971333421</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>12.85782489369991</v>
+        <v>12.53133424696289</v>
       </c>
       <c r="D11">
-        <v>19.39570812655827</v>
+        <v>18.61155557324581</v>
       </c>
       <c r="E11">
-        <v>14.06453797335366</v>
+        <v>13.60475661404246</v>
       </c>
       <c r="F11">
-        <v>120.7584599795371</v>
+        <v>116.7461479274136</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.541840448493748</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3.372921933424257</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>100.914377779006</v>
+        <v>3.365749179960541</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>98.64828405200264</v>
       </c>
       <c r="L11">
-        <v>61.90482824612285</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>60.5556755405054</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>12.85782489369991</v>
+        <v>12.53133424696289</v>
       </c>
       <c r="D12">
-        <v>19.39570812655827</v>
+        <v>18.61155557324581</v>
       </c>
       <c r="E12">
-        <v>14.06453797335366</v>
+        <v>13.60475661404246</v>
       </c>
       <c r="F12">
-        <v>120.7584599795371</v>
+        <v>116.7461479274136</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.541840448493748</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>3.372921933424257</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>100.914377779006</v>
+        <v>3.365749179960541</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>98.64828405200264</v>
       </c>
       <c r="L12">
-        <v>61.90482824612285</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>60.5556755405054</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>12.85782489369991</v>
+        <v>12.53133424696289</v>
       </c>
       <c r="D13">
-        <v>19.39570812655827</v>
+        <v>18.61155557324581</v>
       </c>
       <c r="E13">
-        <v>14.06453797335366</v>
+        <v>13.60475661404246</v>
       </c>
       <c r="F13">
-        <v>120.7584599795371</v>
+        <v>116.7461479274136</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.541840448493748</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>3.372921933424257</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>100.914377779006</v>
+        <v>3.365749179960541</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>98.64828405200264</v>
       </c>
       <c r="L13">
-        <v>61.90482824612285</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>60.5556755405054</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>13.85603037243757</v>
+        <v>12.53133424696289</v>
       </c>
       <c r="D14">
-        <v>21.57300996505151</v>
+        <v>18.61155557324581</v>
       </c>
       <c r="E14">
-        <v>15.19028693758707</v>
+        <v>13.60475661404246</v>
       </c>
       <c r="F14">
-        <v>132.5652554494918</v>
+        <v>116.7461479274136</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.541840448493748</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>3.296128901577096</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>107.4530995849411</v>
+        <v>3.365749179960541</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>98.64828405200264</v>
       </c>
       <c r="L14">
-        <v>65.82457848656362</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>60.5556755405054</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>14.28782251802082</v>
+        <v>12.53133424696289</v>
       </c>
       <c r="D15">
-        <v>22.57757258910025</v>
+        <v>18.61155557324581</v>
       </c>
       <c r="E15">
-        <v>15.74277918599317</v>
+        <v>13.60475661404246</v>
       </c>
       <c r="F15">
-        <v>137.8388505231846</v>
+        <v>116.7461479274136</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.541840448493748</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3.32051072993594</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>110.1999196658645</v>
+        <v>3.365749179960541</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>98.64828405200264</v>
       </c>
       <c r="L15">
-        <v>67.44489297139545</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>60.5556755405054</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>15.35103740921004</v>
+        <v>12.53133424696289</v>
       </c>
       <c r="D16">
-        <v>25.29313049062529</v>
+        <v>18.61155557324581</v>
       </c>
       <c r="E16">
-        <v>17.42495181233736</v>
+        <v>13.60475661404246</v>
       </c>
       <c r="F16">
-        <v>151.3872454769814</v>
+        <v>116.7461479274136</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.541840448493748</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3.645323772550674</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>116.779337416144</v>
+        <v>3.365749179960541</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>98.64828405200264</v>
       </c>
       <c r="L16">
-        <v>71.20018676161588</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>60.5556755405054</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>15.74286786515283</v>
+        <v>12.53133424696289</v>
       </c>
       <c r="D17">
-        <v>26.4293461870497</v>
+        <v>18.61155557324581</v>
       </c>
       <c r="E17">
-        <v>18.24811548024072</v>
+        <v>13.60475661404246</v>
       </c>
       <c r="F17">
-        <v>156.6751870696255</v>
+        <v>116.7461479274136</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.541840448493748</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.916633689126732</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>119.1665964281187</v>
+        <v>3.365749179960541</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>98.64828405200264</v>
       </c>
       <c r="L17">
-        <v>72.48493780164509</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>60.5556755405054</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>15.93006665446082</v>
+        <v>12.53133424696289</v>
       </c>
       <c r="D18">
-        <v>27.0147738012312</v>
+        <v>18.61155557324581</v>
       </c>
       <c r="E18">
-        <v>18.70875868010909</v>
+        <v>13.60475661404246</v>
       </c>
       <c r="F18">
-        <v>159.2926483891936</v>
+        <v>116.7461479274136</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.541840448493748</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>4.091596154579307</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>120.3121925730356</v>
+        <v>3.365749179960541</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>98.64828405200264</v>
       </c>
       <c r="L18">
-        <v>73.07663829251319</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>60.5556755405054</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>15.98852445122772</v>
+        <v>12.53133424696289</v>
       </c>
       <c r="D19">
-        <v>27.20498355231514</v>
+        <v>18.61155557324581</v>
       </c>
       <c r="E19">
-        <v>18.86438354999808</v>
+        <v>13.60475661404246</v>
       </c>
       <c r="F19">
-        <v>160.1259435371666</v>
+        <v>116.7461479274136</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.541840448493748</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>4.153777772846262</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>120.672005363685</v>
+        <v>3.365749179960541</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>98.64828405200264</v>
       </c>
       <c r="L19">
-        <v>73.25827725182086</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>60.5556755405054</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>15.70557401255977</v>
+        <v>12.53133424696289</v>
       </c>
       <c r="D20">
-        <v>26.31648830122204</v>
+        <v>18.61155557324581</v>
       </c>
       <c r="E20">
-        <v>18.16234232238064</v>
+        <v>13.60475661404246</v>
       </c>
       <c r="F20">
-        <v>156.1618184967938</v>
+        <v>116.7461479274136</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.541840448493748</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.88571204150861</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>118.9391389765276</v>
+        <v>3.365749179960541</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>98.64828405200264</v>
       </c>
       <c r="L20">
-        <v>72.36528745810045</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>60.5556755405054</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>15.70557401255977</v>
+        <v>12.53133424696289</v>
       </c>
       <c r="D21">
-        <v>26.31648830122204</v>
+        <v>18.61155557324581</v>
       </c>
       <c r="E21">
-        <v>18.16234232238064</v>
+        <v>13.60475661404246</v>
       </c>
       <c r="F21">
-        <v>156.1618184967938</v>
+        <v>116.7461479274136</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.541840448493748</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>3.88571204150861</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>118.9391389765276</v>
+        <v>3.365749179960541</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>98.64828405200264</v>
       </c>
       <c r="L21">
-        <v>72.36528745810045</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>60.5556755405054</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>15.70557401255977</v>
+        <v>12.53133424696289</v>
       </c>
       <c r="D22">
-        <v>26.31648830122204</v>
+        <v>18.61155557324581</v>
       </c>
       <c r="E22">
-        <v>18.16234232238064</v>
+        <v>13.60475661404246</v>
       </c>
       <c r="F22">
-        <v>156.1618184967938</v>
+        <v>116.7461479274136</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.541840448493748</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>3.88571204150861</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>118.9391389765276</v>
+        <v>3.365749179960541</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>98.64828405200264</v>
       </c>
       <c r="L22">
-        <v>72.36528745810045</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>60.5556755405054</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>15.70557401255977</v>
+        <v>12.53133424696289</v>
       </c>
       <c r="D23">
-        <v>26.31648830122204</v>
+        <v>18.61155557324581</v>
       </c>
       <c r="E23">
-        <v>18.16234232238064</v>
+        <v>13.60475661404246</v>
       </c>
       <c r="F23">
-        <v>156.1618184967938</v>
+        <v>116.7461479274136</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.541840448493748</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3.88571204150861</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>118.9391389765276</v>
+        <v>3.365749179960541</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>98.64828405200264</v>
       </c>
       <c r="L23">
-        <v>72.36528745810045</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>60.5556755405054</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>15.70557401255977</v>
+        <v>12.53133424696289</v>
       </c>
       <c r="D24">
-        <v>26.31648830122204</v>
+        <v>18.61155557324581</v>
       </c>
       <c r="E24">
-        <v>18.16234232238064</v>
+        <v>13.60475661404246</v>
       </c>
       <c r="F24">
-        <v>156.1618184967938</v>
+        <v>116.7461479274136</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.541840448493748</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.88571204150861</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>118.9391389765276</v>
+        <v>3.365749179960541</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>98.64828405200264</v>
       </c>
       <c r="L24">
-        <v>72.36528745810045</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>60.5556755405054</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,34 +1361,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>15.70557401255977</v>
+        <v>12.53133424696289</v>
       </c>
       <c r="D25">
-        <v>26.31648830122204</v>
+        <v>18.61155557324581</v>
       </c>
       <c r="E25">
-        <v>18.16234232238064</v>
+        <v>13.60475661404246</v>
       </c>
       <c r="F25">
-        <v>156.1618184967938</v>
+        <v>116.7461479274136</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.541840448493748</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.88571204150861</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>118.9391389765276</v>
+        <v>3.365749179960541</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>98.64828405200264</v>
       </c>
       <c r="L25">
-        <v>72.36528745810045</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>60.5556755405054</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_62/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.886582388721751</v>
+        <v>6.748988643801916</v>
       </c>
       <c r="D2">
-        <v>10.30903299935098</v>
+        <v>6.890672668721528</v>
       </c>
       <c r="E2">
-        <v>9.31789690278697</v>
+        <v>20.06872525211748</v>
       </c>
       <c r="F2">
-        <v>68.49724344870248</v>
+        <v>49.34579236869811</v>
       </c>
       <c r="G2">
-        <v>1.891646544571468</v>
+        <v>1.828040942349241</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,19 +445,25 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.526936396550275</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>64.82974882350133</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>14.82951895563795</v>
       </c>
       <c r="M2">
-        <v>39.82773437035675</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>105.8003570670688</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>39.64198224167358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.191148434515234</v>
+        <v>5.51889471538175</v>
       </c>
       <c r="D3">
-        <v>9.234050987613942</v>
+        <v>5.183417428571908</v>
       </c>
       <c r="E3">
-        <v>8.701730570826671</v>
+        <v>17.87987422583182</v>
       </c>
       <c r="F3">
-        <v>62.13549468162001</v>
+        <v>41.56104757625928</v>
       </c>
       <c r="G3">
-        <v>1.934263667901428</v>
+        <v>1.894535374320332</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,19 +492,25 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.70803305898965</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>59.42174653333571</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>13.38009983489493</v>
       </c>
       <c r="M3">
-        <v>36.50078595096284</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>95.59941421413484</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>33.06862327198851</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.765427237504351</v>
+        <v>4.937312702039899</v>
       </c>
       <c r="D4">
-        <v>8.595454594020685</v>
+        <v>4.307356501057493</v>
       </c>
       <c r="E4">
-        <v>8.326438418705735</v>
+        <v>16.66205320683551</v>
       </c>
       <c r="F4">
-        <v>58.37424797382735</v>
+        <v>37.62265074116306</v>
       </c>
       <c r="G4">
-        <v>1.95922118508895</v>
+        <v>1.929624568495513</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -521,19 +539,25 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4.816505324695571</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>56.07524645132096</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.55610710066376</v>
       </c>
       <c r="M4">
-        <v>34.44147515055135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>89.71854079278278</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>29.73980943079709</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.591103766336301</v>
+        <v>4.730479806584579</v>
       </c>
       <c r="D5">
-        <v>8.338260303104061</v>
+        <v>3.977396924981996</v>
       </c>
       <c r="E5">
-        <v>8.17329566168036</v>
+        <v>16.18104980528922</v>
       </c>
       <c r="F5">
-        <v>56.86564424858429</v>
+        <v>36.15670430244408</v>
       </c>
       <c r="G5">
-        <v>1.96919684439098</v>
+        <v>1.943093623553848</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -562,19 +586,25 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4.860325221604644</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>54.69743699091447</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.22745607525546</v>
       </c>
       <c r="M5">
-        <v>33.59347756014562</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>87.35864384118985</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>28.49978607244307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.562079633034577</v>
+        <v>4.697719440541593</v>
       </c>
       <c r="D6">
-        <v>8.295682815967455</v>
+        <v>3.923963223685961</v>
       </c>
       <c r="E6">
-        <v>8.147832148488781</v>
+        <v>16.10180296696864</v>
       </c>
       <c r="F6">
-        <v>56.61632475310154</v>
+        <v>35.92040239550091</v>
       </c>
       <c r="G6">
-        <v>1.970844090430604</v>
+        <v>1.945291198582157</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -603,19 +633,25 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4.86758558890633</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>54.46762520228573</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.17314258428814</v>
       </c>
       <c r="M6">
-        <v>33.45202667608422</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>86.97749898981132</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>28.29984323076601</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.763080914593044</v>
+        <v>4.934412590588406</v>
       </c>
       <c r="D7">
-        <v>8.591976209979808</v>
+        <v>4.302810544049138</v>
       </c>
       <c r="E7">
-        <v>8.324374945189389</v>
+        <v>16.65551873667889</v>
       </c>
       <c r="F7">
-        <v>58.35381761626675</v>
+        <v>37.60237931962113</v>
       </c>
       <c r="G7">
-        <v>1.959356389468838</v>
+        <v>1.929809041668582</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -644,19 +680,25 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4.817097510085673</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>56.05673011120209</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.55165416828292</v>
       </c>
       <c r="M7">
-        <v>34.43007953426344</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>89.68661849784255</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>29.72266619727969</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.645696921844144</v>
+        <v>6.276636347323191</v>
       </c>
       <c r="D8">
-        <v>9.932213948295257</v>
+        <v>6.251576024652748</v>
       </c>
       <c r="E8">
-        <v>9.104091891094154</v>
+        <v>19.27328857499523</v>
       </c>
       <c r="F8">
-        <v>66.26453696934728</v>
+        <v>46.42183920276486</v>
       </c>
       <c r="G8">
-        <v>1.906670885830561</v>
+        <v>1.852699309501701</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -685,19 +727,25 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.590155081029672</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>62.96502121764406</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>14.30772698402233</v>
       </c>
       <c r="M8">
-        <v>38.68069864099735</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>102.151301339727</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>37.17357500339376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.475598798160702</v>
+        <v>6.276636347323191</v>
       </c>
       <c r="D9">
-        <v>12.91612499206779</v>
+        <v>6.251576024652748</v>
       </c>
       <c r="E9">
-        <v>10.73766139886207</v>
+        <v>19.27328857499523</v>
       </c>
       <c r="F9">
-        <v>83.93032282823573</v>
+        <v>46.42183920276486</v>
       </c>
       <c r="G9">
-        <v>1.785317344122591</v>
+        <v>1.852699309501701</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -726,19 +774,25 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.102241462227767</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>76.88559964663044</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>14.30772698402233</v>
       </c>
       <c r="M9">
-        <v>47.23941182782156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>102.151301339727</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>37.17357500339376</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>11.19563942359221</v>
+        <v>6.276636347323191</v>
       </c>
       <c r="D10">
-        <v>15.99664197608723</v>
+        <v>6.251576024652748</v>
       </c>
       <c r="E10">
-        <v>12.30969915236155</v>
+        <v>19.27328857499523</v>
       </c>
       <c r="F10">
-        <v>101.9043925892275</v>
+        <v>46.42183920276486</v>
       </c>
       <c r="G10">
-        <v>1.655110039377951</v>
+        <v>1.852699309501701</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -767,19 +821,25 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>3.654417129369584</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>89.39240830029195</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>14.30772698402233</v>
       </c>
       <c r="M10">
-        <v>54.91113971333421</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>102.151301339727</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>37.17357500339376</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>12.53133424696289</v>
+        <v>6.276636347323191</v>
       </c>
       <c r="D11">
-        <v>18.61155557324581</v>
+        <v>6.251576024652748</v>
       </c>
       <c r="E11">
-        <v>13.60475661404246</v>
+        <v>19.27328857499523</v>
       </c>
       <c r="F11">
-        <v>116.7461479274136</v>
+        <v>46.42183920276486</v>
       </c>
       <c r="G11">
-        <v>1.541840448493748</v>
+        <v>1.852699309501701</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -808,19 +868,25 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>3.365749179960541</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>98.64828405200264</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>14.30772698402233</v>
       </c>
       <c r="M11">
-        <v>60.5556755405054</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>102.151301339727</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>37.17357500339376</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>12.53133424696289</v>
+        <v>6.276636347323191</v>
       </c>
       <c r="D12">
-        <v>18.61155557324581</v>
+        <v>6.251576024652748</v>
       </c>
       <c r="E12">
-        <v>13.60475661404246</v>
+        <v>19.27328857499523</v>
       </c>
       <c r="F12">
-        <v>116.7461479274136</v>
+        <v>46.42183920276486</v>
       </c>
       <c r="G12">
-        <v>1.541840448493748</v>
+        <v>1.852699309501701</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -849,19 +915,25 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>3.365749179960541</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>98.64828405200264</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>14.30772698402233</v>
       </c>
       <c r="M12">
-        <v>60.5556755405054</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>102.151301339727</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>37.17357500339376</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>12.53133424696289</v>
+        <v>6.276636347323191</v>
       </c>
       <c r="D13">
-        <v>18.61155557324581</v>
+        <v>6.251576024652748</v>
       </c>
       <c r="E13">
-        <v>13.60475661404246</v>
+        <v>19.27328857499523</v>
       </c>
       <c r="F13">
-        <v>116.7461479274136</v>
+        <v>46.42183920276486</v>
       </c>
       <c r="G13">
-        <v>1.541840448493748</v>
+        <v>1.852699309501701</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -890,19 +962,25 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>3.365749179960541</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>98.64828405200264</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>14.30772698402233</v>
       </c>
       <c r="M13">
-        <v>60.5556755405054</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>102.151301339727</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>37.17357500339376</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>12.53133424696289</v>
+        <v>6.276636347323191</v>
       </c>
       <c r="D14">
-        <v>18.61155557324581</v>
+        <v>6.251576024652748</v>
       </c>
       <c r="E14">
-        <v>13.60475661404246</v>
+        <v>19.27328857499523</v>
       </c>
       <c r="F14">
-        <v>116.7461479274136</v>
+        <v>46.42183920276486</v>
       </c>
       <c r="G14">
-        <v>1.541840448493748</v>
+        <v>1.852699309501701</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -931,19 +1009,25 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>3.365749179960541</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>98.64828405200264</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>14.30772698402233</v>
       </c>
       <c r="M14">
-        <v>60.5556755405054</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>102.151301339727</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>37.17357500339376</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>12.53133424696289</v>
+        <v>6.276636347323191</v>
       </c>
       <c r="D15">
-        <v>18.61155557324581</v>
+        <v>6.251576024652748</v>
       </c>
       <c r="E15">
-        <v>13.60475661404246</v>
+        <v>19.27328857499523</v>
       </c>
       <c r="F15">
-        <v>116.7461479274136</v>
+        <v>46.42183920276486</v>
       </c>
       <c r="G15">
-        <v>1.541840448493748</v>
+        <v>1.852699309501701</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -972,19 +1056,25 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>3.365749179960541</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>98.64828405200264</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>14.30772698402233</v>
       </c>
       <c r="M15">
-        <v>60.5556755405054</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>102.151301339727</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>37.17357500339376</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>12.53133424696289</v>
+        <v>6.276636347323191</v>
       </c>
       <c r="D16">
-        <v>18.61155557324581</v>
+        <v>6.251576024652748</v>
       </c>
       <c r="E16">
-        <v>13.60475661404246</v>
+        <v>19.27328857499523</v>
       </c>
       <c r="F16">
-        <v>116.7461479274136</v>
+        <v>46.42183920276486</v>
       </c>
       <c r="G16">
-        <v>1.541840448493748</v>
+        <v>1.852699309501701</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1013,19 +1103,25 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>3.365749179960541</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>98.64828405200264</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>14.30772698402233</v>
       </c>
       <c r="M16">
-        <v>60.5556755405054</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>102.151301339727</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>37.17357500339376</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>12.53133424696289</v>
+        <v>6.276636347323191</v>
       </c>
       <c r="D17">
-        <v>18.61155557324581</v>
+        <v>6.251576024652748</v>
       </c>
       <c r="E17">
-        <v>13.60475661404246</v>
+        <v>19.27328857499523</v>
       </c>
       <c r="F17">
-        <v>116.7461479274136</v>
+        <v>46.42183920276486</v>
       </c>
       <c r="G17">
-        <v>1.541840448493748</v>
+        <v>1.852699309501701</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1054,19 +1150,25 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>3.365749179960541</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>98.64828405200264</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>14.30772698402233</v>
       </c>
       <c r="M17">
-        <v>60.5556755405054</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>102.151301339727</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>37.17357500339376</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>12.53133424696289</v>
+        <v>6.276636347323191</v>
       </c>
       <c r="D18">
-        <v>18.61155557324581</v>
+        <v>6.251576024652748</v>
       </c>
       <c r="E18">
-        <v>13.60475661404246</v>
+        <v>19.27328857499523</v>
       </c>
       <c r="F18">
-        <v>116.7461479274136</v>
+        <v>46.42183920276486</v>
       </c>
       <c r="G18">
-        <v>1.541840448493748</v>
+        <v>1.852699309501701</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1095,19 +1197,25 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>3.365749179960541</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>98.64828405200264</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>14.30772698402233</v>
       </c>
       <c r="M18">
-        <v>60.5556755405054</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>102.151301339727</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>37.17357500339376</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>12.53133424696289</v>
+        <v>6.276636347323191</v>
       </c>
       <c r="D19">
-        <v>18.61155557324581</v>
+        <v>6.251576024652748</v>
       </c>
       <c r="E19">
-        <v>13.60475661404246</v>
+        <v>19.27328857499523</v>
       </c>
       <c r="F19">
-        <v>116.7461479274136</v>
+        <v>46.42183920276486</v>
       </c>
       <c r="G19">
-        <v>1.541840448493748</v>
+        <v>1.852699309501701</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1136,19 +1244,25 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>3.365749179960541</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>98.64828405200264</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>14.30772698402233</v>
       </c>
       <c r="M19">
-        <v>60.5556755405054</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>102.151301339727</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>37.17357500339376</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>12.53133424696289</v>
+        <v>6.276636347323191</v>
       </c>
       <c r="D20">
-        <v>18.61155557324581</v>
+        <v>6.251576024652748</v>
       </c>
       <c r="E20">
-        <v>13.60475661404246</v>
+        <v>19.27328857499523</v>
       </c>
       <c r="F20">
-        <v>116.7461479274136</v>
+        <v>46.42183920276486</v>
       </c>
       <c r="G20">
-        <v>1.541840448493748</v>
+        <v>1.852699309501701</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1177,19 +1291,25 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>3.365749179960541</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>98.64828405200264</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>14.30772698402233</v>
       </c>
       <c r="M20">
-        <v>60.5556755405054</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>102.151301339727</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>37.17357500339376</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>12.53133424696289</v>
+        <v>6.276636347323191</v>
       </c>
       <c r="D21">
-        <v>18.61155557324581</v>
+        <v>6.251576024652748</v>
       </c>
       <c r="E21">
-        <v>13.60475661404246</v>
+        <v>19.27328857499523</v>
       </c>
       <c r="F21">
-        <v>116.7461479274136</v>
+        <v>46.42183920276486</v>
       </c>
       <c r="G21">
-        <v>1.541840448493748</v>
+        <v>1.852699309501701</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1218,19 +1338,25 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>3.365749179960541</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>98.64828405200264</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>14.30772698402233</v>
       </c>
       <c r="M21">
-        <v>60.5556755405054</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>102.151301339727</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>37.17357500339376</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>12.53133424696289</v>
+        <v>6.276636347323191</v>
       </c>
       <c r="D22">
-        <v>18.61155557324581</v>
+        <v>6.251576024652748</v>
       </c>
       <c r="E22">
-        <v>13.60475661404246</v>
+        <v>19.27328857499523</v>
       </c>
       <c r="F22">
-        <v>116.7461479274136</v>
+        <v>46.42183920276486</v>
       </c>
       <c r="G22">
-        <v>1.541840448493748</v>
+        <v>1.852699309501701</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1259,19 +1385,25 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>3.365749179960541</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>98.64828405200264</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>14.30772698402233</v>
       </c>
       <c r="M22">
-        <v>60.5556755405054</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>102.151301339727</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>37.17357500339376</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>12.53133424696289</v>
+        <v>6.276636347323191</v>
       </c>
       <c r="D23">
-        <v>18.61155557324581</v>
+        <v>6.251576024652748</v>
       </c>
       <c r="E23">
-        <v>13.60475661404246</v>
+        <v>19.27328857499523</v>
       </c>
       <c r="F23">
-        <v>116.7461479274136</v>
+        <v>46.42183920276486</v>
       </c>
       <c r="G23">
-        <v>1.541840448493748</v>
+        <v>1.852699309501701</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1300,19 +1432,25 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>3.365749179960541</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>98.64828405200264</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>14.30772698402233</v>
       </c>
       <c r="M23">
-        <v>60.5556755405054</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>102.151301339727</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>37.17357500339376</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>12.53133424696289</v>
+        <v>6.276636347323191</v>
       </c>
       <c r="D24">
-        <v>18.61155557324581</v>
+        <v>6.251576024652748</v>
       </c>
       <c r="E24">
-        <v>13.60475661404246</v>
+        <v>19.27328857499523</v>
       </c>
       <c r="F24">
-        <v>116.7461479274136</v>
+        <v>46.42183920276486</v>
       </c>
       <c r="G24">
-        <v>1.541840448493748</v>
+        <v>1.852699309501701</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1341,19 +1479,25 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>3.365749179960541</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>98.64828405200264</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>14.30772698402233</v>
       </c>
       <c r="M24">
-        <v>60.5556755405054</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>102.151301339727</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>37.17357500339376</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>12.53133424696289</v>
+        <v>6.276636347323191</v>
       </c>
       <c r="D25">
-        <v>18.61155557324581</v>
+        <v>6.251576024652748</v>
       </c>
       <c r="E25">
-        <v>13.60475661404246</v>
+        <v>19.27328857499523</v>
       </c>
       <c r="F25">
-        <v>116.7461479274136</v>
+        <v>46.42183920276486</v>
       </c>
       <c r="G25">
-        <v>1.541840448493748</v>
+        <v>1.852699309501701</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1382,16 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>3.365749179960541</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>98.64828405200264</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>14.30772698402233</v>
       </c>
       <c r="M25">
-        <v>60.5556755405054</v>
+        <v>102.151301339727</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>37.17357500339376</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_62/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.748988643801916</v>
+        <v>7.122356060453986</v>
       </c>
       <c r="D2">
-        <v>6.890672668721528</v>
+        <v>4.382977744726664</v>
       </c>
       <c r="E2">
-        <v>20.06872525211748</v>
+        <v>7.409912475681669</v>
       </c>
       <c r="F2">
-        <v>49.34579236869811</v>
+        <v>30.22733721942668</v>
       </c>
       <c r="G2">
-        <v>1.828040942349241</v>
+        <v>40.19476922999875</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>12.33016122254524</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.639917035873006</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>20.37264830347406</v>
       </c>
       <c r="L2">
-        <v>14.82951895563795</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>105.8003570670688</v>
+        <v>15.85422500912238</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>12.38745108671482</v>
       </c>
       <c r="O2">
-        <v>39.64198224167358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.51889471538175</v>
+        <v>6.620434681325301</v>
       </c>
       <c r="D3">
-        <v>5.183417428571908</v>
+        <v>4.292755289050175</v>
       </c>
       <c r="E3">
-        <v>17.87987422583182</v>
+        <v>7.345184405221445</v>
       </c>
       <c r="F3">
-        <v>41.56104757625928</v>
+        <v>29.34268273991604</v>
       </c>
       <c r="G3">
-        <v>1.894535374320332</v>
+        <v>38.6477436410706</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>12.17457932499798</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.675415492419302</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>18.95863505642014</v>
       </c>
       <c r="L3">
-        <v>13.38009983489493</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>95.59941421413484</v>
+        <v>15.05267512016975</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>12.65116875900949</v>
       </c>
       <c r="O3">
-        <v>33.06862327198851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.937312702039899</v>
+        <v>6.295997842052066</v>
       </c>
       <c r="D4">
-        <v>4.307356501057493</v>
+        <v>4.237533942360709</v>
       </c>
       <c r="E4">
-        <v>16.66205320683551</v>
+        <v>7.308882634230411</v>
       </c>
       <c r="F4">
-        <v>37.62265074116306</v>
+        <v>28.82010036311521</v>
       </c>
       <c r="G4">
-        <v>1.929624568495513</v>
+        <v>37.71956210831069</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>12.09022530248155</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5.699539819922917</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>18.04250545876079</v>
       </c>
       <c r="L4">
-        <v>12.55610710066376</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>89.71854079278278</v>
+        <v>14.54743136287494</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>12.81554344597014</v>
       </c>
       <c r="O4">
-        <v>29.73980943079709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.730479806584579</v>
+        <v>6.159649763239345</v>
       </c>
       <c r="D5">
-        <v>3.977396924981996</v>
+        <v>4.215095039834696</v>
       </c>
       <c r="E5">
-        <v>16.18104980528922</v>
+        <v>7.294942302904007</v>
       </c>
       <c r="F5">
-        <v>36.15670430244408</v>
+        <v>28.61242113734087</v>
       </c>
       <c r="G5">
-        <v>1.943093623553848</v>
+        <v>37.34712316176701</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>12.05856970278985</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.709940954394174</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>17.65700057456402</v>
       </c>
       <c r="L5">
-        <v>12.22745607525546</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>87.35864384118985</v>
+        <v>14.33848112019376</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>12.88319484740987</v>
       </c>
       <c r="O5">
-        <v>28.49978607244307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.697719440541593</v>
+        <v>6.136757954865201</v>
       </c>
       <c r="D6">
-        <v>3.923963223685961</v>
+        <v>4.211373561886752</v>
       </c>
       <c r="E6">
-        <v>16.10180296696864</v>
+        <v>7.292678658033445</v>
       </c>
       <c r="F6">
-        <v>35.92040239550091</v>
+        <v>28.5782576217053</v>
       </c>
       <c r="G6">
-        <v>1.945291198582157</v>
+        <v>37.28564094338977</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>12.05347482418144</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.711702075313924</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>17.59224890409936</v>
       </c>
       <c r="L6">
-        <v>12.17314258428814</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>86.97749898981132</v>
+        <v>14.30360798754152</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>12.8944700499482</v>
       </c>
       <c r="O6">
-        <v>28.29984323076601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.934412590588406</v>
+        <v>6.294175821227997</v>
       </c>
       <c r="D7">
-        <v>4.302810544049138</v>
+        <v>4.237231036136309</v>
       </c>
       <c r="E7">
-        <v>16.65551873667889</v>
+        <v>7.308691193525357</v>
       </c>
       <c r="F7">
-        <v>37.60237931962113</v>
+        <v>28.81727803605685</v>
       </c>
       <c r="G7">
-        <v>1.929809041668582</v>
+        <v>37.71451529821233</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>12.08978749622361</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.699677803470153</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>18.03735586171484</v>
       </c>
       <c r="L7">
-        <v>12.55165416828292</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>89.68661849784255</v>
+        <v>14.54462543397383</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>12.81645304908321</v>
       </c>
       <c r="O7">
-        <v>29.72266619727969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.276636347323191</v>
+        <v>6.952636555110732</v>
       </c>
       <c r="D8">
-        <v>6.251576024652748</v>
+        <v>4.351844325552367</v>
       </c>
       <c r="E8">
-        <v>19.27328857499523</v>
+        <v>7.386872627468493</v>
       </c>
       <c r="F8">
-        <v>46.42183920276486</v>
+        <v>29.91809229720717</v>
       </c>
       <c r="G8">
-        <v>1.852699309501701</v>
+        <v>39.65705039491281</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>12.274144386315</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.651664243267319</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>19.89496550300372</v>
       </c>
       <c r="L8">
-        <v>14.30772698402233</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>102.151301339727</v>
+        <v>15.58069248626471</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>12.47790407858131</v>
       </c>
       <c r="O8">
-        <v>37.17357500339376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.276636347323191</v>
+        <v>8.117271498638907</v>
       </c>
       <c r="D9">
-        <v>6.251576024652748</v>
+        <v>4.577175568094371</v>
       </c>
       <c r="E9">
-        <v>19.27328857499523</v>
+        <v>7.56803547843968</v>
       </c>
       <c r="F9">
-        <v>46.42183920276486</v>
+        <v>32.23613614443476</v>
       </c>
       <c r="G9">
-        <v>1.852699309501701</v>
+        <v>43.62527857963585</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>12.72817636581159</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5.576722972523923</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>23.16342534313724</v>
       </c>
       <c r="L9">
-        <v>14.30772698402233</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>102.151301339727</v>
+        <v>17.50064110734047</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>11.83095486676614</v>
       </c>
       <c r="O9">
-        <v>37.17357500339376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.276636347323191</v>
+        <v>8.899245974295358</v>
       </c>
       <c r="D10">
-        <v>6.251576024652748</v>
+        <v>4.742099905538841</v>
       </c>
       <c r="E10">
-        <v>19.27328857499523</v>
+        <v>7.718865360088249</v>
       </c>
       <c r="F10">
-        <v>46.42183920276486</v>
+        <v>34.03201853277415</v>
       </c>
       <c r="G10">
-        <v>1.852699309501701</v>
+        <v>46.62408981975541</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>13.12324654839018</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5.534500025007421</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>25.34527970329181</v>
       </c>
       <c r="L10">
-        <v>14.30772698402233</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>102.151301339727</v>
+        <v>19.06227864236942</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>11.3621559647659</v>
       </c>
       <c r="O10">
-        <v>37.17357500339376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.276636347323191</v>
+        <v>9.239819909147107</v>
       </c>
       <c r="D11">
-        <v>6.251576024652748</v>
+        <v>4.816825067667542</v>
       </c>
       <c r="E11">
-        <v>19.27328857499523</v>
+        <v>7.791501023469944</v>
       </c>
       <c r="F11">
-        <v>46.42183920276486</v>
+        <v>34.86876534280594</v>
       </c>
       <c r="G11">
-        <v>1.852699309501701</v>
+        <v>48.00502652170322</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>13.31740269364171</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5.518357463227323</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>26.29226934326289</v>
       </c>
       <c r="L11">
-        <v>14.30772698402233</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>102.151301339727</v>
+        <v>19.77440077612606</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>11.14935680013592</v>
       </c>
       <c r="O11">
-        <v>37.17357500339376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.276636347323191</v>
+        <v>9.366682417373921</v>
       </c>
       <c r="D12">
-        <v>6.251576024652748</v>
+        <v>4.845067473148752</v>
       </c>
       <c r="E12">
-        <v>19.27328857499523</v>
+        <v>7.819599551226916</v>
       </c>
       <c r="F12">
-        <v>46.42183920276486</v>
+        <v>35.18847828001468</v>
       </c>
       <c r="G12">
-        <v>1.852699309501701</v>
+        <v>48.53035590562513</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>13.39309077377521</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5.512711379091682</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>26.64450454858134</v>
       </c>
       <c r="L12">
-        <v>14.30772698402233</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>102.151301339727</v>
+        <v>20.03931477587494</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>11.06875406150031</v>
       </c>
       <c r="O12">
-        <v>37.17357500339376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.276636347323191</v>
+        <v>9.339452716843297</v>
       </c>
       <c r="D13">
-        <v>6.251576024652748</v>
+        <v>4.838987536080249</v>
       </c>
       <c r="E13">
-        <v>19.27328857499523</v>
+        <v>7.813521407886302</v>
       </c>
       <c r="F13">
-        <v>46.42183920276486</v>
+        <v>35.1194947488341</v>
       </c>
       <c r="G13">
-        <v>1.852699309501701</v>
+        <v>48.41710929286681</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>13.37669220919051</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>5.5139061637364</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>26.56892463589113</v>
       </c>
       <c r="L13">
-        <v>14.30772698402233</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>102.151301339727</v>
+        <v>19.98246983037639</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>11.08611567973408</v>
       </c>
       <c r="O13">
-        <v>37.17357500339376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.276636347323191</v>
+        <v>9.250298719829617</v>
       </c>
       <c r="D14">
-        <v>6.251576024652748</v>
+        <v>4.81914973261952</v>
       </c>
       <c r="E14">
-        <v>19.27328857499523</v>
+        <v>7.793800732794215</v>
       </c>
       <c r="F14">
-        <v>46.42183920276486</v>
+        <v>34.89501087914134</v>
       </c>
       <c r="G14">
-        <v>1.852699309501701</v>
+        <v>48.04819733625648</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>13.32358567089667</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5.517883443941994</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>26.32137450826845</v>
       </c>
       <c r="L14">
-        <v>14.30772698402233</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>102.151301339727</v>
+        <v>19.79628981231495</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>11.14272649852918</v>
       </c>
       <c r="O14">
-        <v>37.17357500339376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.276636347323191</v>
+        <v>9.195417404424134</v>
       </c>
       <c r="D15">
-        <v>6.251576024652748</v>
+        <v>4.806991132123742</v>
       </c>
       <c r="E15">
-        <v>19.27328857499523</v>
+        <v>7.781798933134147</v>
       </c>
       <c r="F15">
-        <v>46.42183920276486</v>
+        <v>34.75788090954992</v>
       </c>
       <c r="G15">
-        <v>1.852699309501701</v>
+        <v>47.82254178412097</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>13.29134111182989</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5.520381243538211</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>26.1689190516864</v>
       </c>
       <c r="L15">
-        <v>14.30772698402233</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>102.151301339727</v>
+        <v>19.68163465679236</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>11.17739689641219</v>
       </c>
       <c r="O15">
-        <v>37.17357500339376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.276636347323191</v>
+        <v>8.876689922422006</v>
       </c>
       <c r="D16">
-        <v>6.251576024652748</v>
+        <v>4.737209384071571</v>
       </c>
       <c r="E16">
-        <v>19.27328857499523</v>
+        <v>7.71420059919011</v>
       </c>
       <c r="F16">
-        <v>46.42183920276486</v>
+        <v>33.97773315263989</v>
       </c>
       <c r="G16">
-        <v>1.852699309501701</v>
+        <v>46.53417647546041</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>13.11085603041995</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5.53561882097853</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>25.28249027298098</v>
       </c>
       <c r="L16">
-        <v>14.30772698402233</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>102.151301339727</v>
+        <v>19.01506726795597</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>11.37606495428375</v>
       </c>
       <c r="O16">
-        <v>37.17357500339376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.276636347323191</v>
+        <v>8.677330802053589</v>
       </c>
       <c r="D17">
-        <v>6.251576024652748</v>
+        <v>4.694314918083842</v>
       </c>
       <c r="E17">
-        <v>19.27328857499523</v>
+        <v>7.673771336634902</v>
       </c>
       <c r="F17">
-        <v>46.42183920276486</v>
+        <v>33.50419914262677</v>
       </c>
       <c r="G17">
-        <v>1.852699309501701</v>
+        <v>45.74806105000921</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>13.00389415730934</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>5.545769315295296</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>24.72715313637309</v>
       </c>
       <c r="L17">
-        <v>14.30772698402233</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>102.151301339727</v>
+        <v>18.59753835150453</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>11.49800036674758</v>
       </c>
       <c r="O17">
-        <v>37.17357500339376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.276636347323191</v>
+        <v>8.561233993251189</v>
       </c>
       <c r="D18">
-        <v>6.251576024652748</v>
+        <v>4.669615462643159</v>
       </c>
       <c r="E18">
-        <v>19.27328857499523</v>
+        <v>7.650895155772641</v>
       </c>
       <c r="F18">
-        <v>46.42183920276486</v>
+        <v>33.23369463314582</v>
       </c>
       <c r="G18">
-        <v>1.852699309501701</v>
+        <v>45.29748105231299</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>12.94372585390515</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>5.551894391013647</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>24.40343921535002</v>
       </c>
       <c r="L18">
-        <v>14.30772698402233</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>102.151301339727</v>
+        <v>18.35417899005308</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>11.56818333874025</v>
       </c>
       <c r="O18">
-        <v>37.17357500339376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.276636347323191</v>
+        <v>8.521677749364644</v>
       </c>
       <c r="D19">
-        <v>6.251576024652748</v>
+        <v>4.661248281572909</v>
       </c>
       <c r="E19">
-        <v>19.27328857499523</v>
+        <v>7.643214118531688</v>
       </c>
       <c r="F19">
-        <v>46.42183920276486</v>
+        <v>33.14242631836906</v>
       </c>
       <c r="G19">
-        <v>1.852699309501701</v>
+        <v>45.14519444802282</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>12.92358368325561</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>5.554016738094432</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>24.29309167751153</v>
       </c>
       <c r="L19">
-        <v>14.30772698402233</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>102.151301339727</v>
+        <v>18.27122678126814</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>11.59195698612769</v>
       </c>
       <c r="O19">
-        <v>37.17357500339376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.276636347323191</v>
+        <v>8.698700483535724</v>
       </c>
       <c r="D20">
-        <v>6.251576024652748</v>
+        <v>4.698884063467735</v>
       </c>
       <c r="E20">
-        <v>19.27328857499523</v>
+        <v>7.678035913589236</v>
       </c>
       <c r="F20">
-        <v>46.42183920276486</v>
+        <v>33.55441525046006</v>
       </c>
       <c r="G20">
-        <v>1.852699309501701</v>
+        <v>45.83158198978612</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>13.01513973308877</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>5.54465891657187</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>24.78671335992402</v>
       </c>
       <c r="L20">
-        <v>14.30772698402233</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>102.151301339727</v>
+        <v>18.64231605813193</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>11.48501566618562</v>
       </c>
       <c r="O20">
-        <v>37.17357500339376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.276636347323191</v>
+        <v>9.276541938103517</v>
       </c>
       <c r="D21">
-        <v>6.251576024652748</v>
+        <v>4.824978129270028</v>
       </c>
       <c r="E21">
-        <v>19.27328857499523</v>
+        <v>7.799576955586657</v>
       </c>
       <c r="F21">
-        <v>46.42183920276486</v>
+        <v>34.96086944144164</v>
       </c>
       <c r="G21">
-        <v>1.852699309501701</v>
+        <v>48.15649023455795</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>13.33912484434733</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>5.51670233276558</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>26.39425732904511</v>
       </c>
       <c r="L21">
-        <v>14.30772698402233</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>102.151301339727</v>
+        <v>19.85110320302374</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>11.12609981356814</v>
       </c>
       <c r="O21">
-        <v>37.17357500339376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.276636347323191</v>
+        <v>9.641961046974961</v>
       </c>
       <c r="D22">
-        <v>6.251576024652748</v>
+        <v>4.907067570524883</v>
       </c>
       <c r="E22">
-        <v>19.27328857499523</v>
+        <v>7.882475451097201</v>
       </c>
       <c r="F22">
-        <v>46.42183920276486</v>
+        <v>35.89674949687617</v>
       </c>
       <c r="G22">
-        <v>1.852699309501701</v>
+        <v>49.68999863695237</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>13.56353486451276</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5.501165634917133</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>27.40785035581228</v>
       </c>
       <c r="L22">
-        <v>14.30772698402233</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>102.151301339727</v>
+        <v>20.61349331629402</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>10.89136234970635</v>
       </c>
       <c r="O22">
-        <v>37.17357500339376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.276636347323191</v>
+        <v>9.448023580837949</v>
       </c>
       <c r="D23">
-        <v>6.251576024652748</v>
+        <v>4.863287224223503</v>
       </c>
       <c r="E23">
-        <v>19.27328857499523</v>
+        <v>7.837908700449288</v>
       </c>
       <c r="F23">
-        <v>46.42183920276486</v>
+        <v>35.39571079866673</v>
       </c>
       <c r="G23">
-        <v>1.852699309501701</v>
+        <v>48.87022935553063</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>13.44257301913193</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>5.509198378525761</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>26.87020134708926</v>
       </c>
       <c r="L23">
-        <v>14.30772698402233</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>102.151301339727</v>
+        <v>20.20907085330842</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>11.01669222993254</v>
       </c>
       <c r="O23">
-        <v>37.17357500339376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.276636347323191</v>
+        <v>8.68904387394033</v>
       </c>
       <c r="D24">
-        <v>6.251576024652748</v>
+        <v>4.696818472973732</v>
       </c>
       <c r="E24">
-        <v>19.27328857499523</v>
+        <v>7.676106755862595</v>
       </c>
       <c r="F24">
-        <v>46.42183920276486</v>
+        <v>33.5317071393309</v>
       </c>
       <c r="G24">
-        <v>1.852699309501701</v>
+        <v>45.79381790898538</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>13.01005148632051</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>5.545160028289588</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>24.75980003589313</v>
       </c>
       <c r="L24">
-        <v>14.30772698402233</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>102.151301339727</v>
+        <v>18.6220823970405</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>11.49088579159431</v>
       </c>
       <c r="O24">
-        <v>37.17357500339376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.276636347323191</v>
+        <v>7.815412744181454</v>
       </c>
       <c r="D25">
-        <v>6.251576024652748</v>
+        <v>4.516263460266075</v>
       </c>
       <c r="E25">
-        <v>19.27328857499523</v>
+        <v>7.515967218513212</v>
       </c>
       <c r="F25">
-        <v>46.42183920276486</v>
+        <v>31.59250056296436</v>
       </c>
       <c r="G25">
-        <v>1.852699309501701</v>
+        <v>42.53638656546059</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>12.59491078786434</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>5.594829864417634</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>22.31842554990579</v>
       </c>
       <c r="L25">
-        <v>14.30772698402233</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>102.151301339727</v>
+        <v>16.99414683462556</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>12.00453132351188</v>
       </c>
       <c r="O25">
-        <v>37.17357500339376</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_62/res_line/loading_percent.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.122356060453986</v>
+        <v>4.914230582351781</v>
       </c>
       <c r="D2">
-        <v>4.382977744726664</v>
+        <v>7.39804222745583</v>
       </c>
       <c r="E2">
-        <v>7.409912475681669</v>
+        <v>12.28299269679532</v>
       </c>
       <c r="F2">
-        <v>30.22733721942668</v>
+        <v>39.33569652803837</v>
       </c>
       <c r="G2">
-        <v>40.19476922999875</v>
+        <v>46.32005703397751</v>
       </c>
       <c r="H2">
-        <v>12.33016122254524</v>
+        <v>18.45746421273209</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.639917035873006</v>
+        <v>9.868275483724016</v>
       </c>
       <c r="K2">
-        <v>20.37264830347406</v>
+        <v>17.0168400435231</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.85422500912238</v>
+        <v>18.63935577571864</v>
       </c>
       <c r="N2">
-        <v>12.38745108671482</v>
+        <v>19.19277078021837</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.620434681325301</v>
+        <v>4.752483729100021</v>
       </c>
       <c r="D3">
-        <v>4.292755289050175</v>
+        <v>7.393720686979336</v>
       </c>
       <c r="E3">
-        <v>7.345184405221445</v>
+        <v>12.30034240665037</v>
       </c>
       <c r="F3">
-        <v>29.34268273991604</v>
+        <v>39.32018844834531</v>
       </c>
       <c r="G3">
-        <v>38.6477436410706</v>
+        <v>46.19323033242995</v>
       </c>
       <c r="H3">
-        <v>12.17457932499798</v>
+        <v>18.49423114194269</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.675415492419302</v>
+        <v>9.892613564710095</v>
       </c>
       <c r="K3">
-        <v>18.95863505642014</v>
+        <v>16.65498122017688</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.05267512016975</v>
+        <v>18.5109125860743</v>
       </c>
       <c r="N3">
-        <v>12.65116875900949</v>
+        <v>19.26531851198388</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.295997842052066</v>
+        <v>4.651922307078825</v>
       </c>
       <c r="D4">
-        <v>4.237533942360709</v>
+        <v>7.391667335093565</v>
       </c>
       <c r="E4">
-        <v>7.308882634230411</v>
+        <v>12.31263209739727</v>
       </c>
       <c r="F4">
-        <v>28.82010036311521</v>
+        <v>39.32163919041295</v>
       </c>
       <c r="G4">
-        <v>37.71956210831069</v>
+        <v>46.13114002680524</v>
       </c>
       <c r="H4">
-        <v>12.09022530248155</v>
+        <v>18.52087232557314</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.699539819922917</v>
+        <v>9.908628130634932</v>
       </c>
       <c r="K4">
-        <v>18.04250545876079</v>
+        <v>16.43267218940929</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.54743136287494</v>
+        <v>18.43534354674623</v>
       </c>
       <c r="N4">
-        <v>12.81554344597014</v>
+        <v>19.31182189253912</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.159649763239345</v>
+        <v>4.610702188463699</v>
       </c>
       <c r="D5">
-        <v>4.215095039834696</v>
+        <v>7.390982365483244</v>
       </c>
       <c r="E5">
-        <v>7.294942302904007</v>
+        <v>12.31805203745495</v>
       </c>
       <c r="F5">
-        <v>28.61242113734087</v>
+        <v>39.32498574557949</v>
       </c>
       <c r="G5">
-        <v>37.34712316176701</v>
+        <v>46.10981455375608</v>
       </c>
       <c r="H5">
-        <v>12.05856970278985</v>
+        <v>18.53274818944116</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.709940954394174</v>
+        <v>9.915423808906652</v>
       </c>
       <c r="K5">
-        <v>17.65700057456402</v>
+        <v>16.34218073438851</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.33848112019376</v>
+        <v>18.4054034384413</v>
       </c>
       <c r="N5">
-        <v>12.88319484740987</v>
+        <v>19.33126676645111</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.136757954865201</v>
+        <v>4.603845335833752</v>
       </c>
       <c r="D6">
-        <v>4.211373561886752</v>
+        <v>7.390877819752781</v>
       </c>
       <c r="E6">
-        <v>7.292678658033445</v>
+        <v>12.31897689000885</v>
       </c>
       <c r="F6">
-        <v>28.5782576217053</v>
+        <v>39.32570770357341</v>
       </c>
       <c r="G6">
-        <v>37.28564094338977</v>
+        <v>46.10651380468994</v>
       </c>
       <c r="H6">
-        <v>12.05347482418144</v>
+        <v>18.53478163986943</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.711702075313924</v>
+        <v>9.916568519812607</v>
       </c>
       <c r="K6">
-        <v>17.59224890409936</v>
+        <v>16.32716476049266</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.30360798754152</v>
+        <v>18.40048427678995</v>
       </c>
       <c r="N6">
-        <v>12.8944700499482</v>
+        <v>19.33452548499307</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.294175821227997</v>
+        <v>4.651367271286677</v>
       </c>
       <c r="D7">
-        <v>4.237231036136309</v>
+        <v>7.391657481607441</v>
       </c>
       <c r="E7">
-        <v>7.308691193525357</v>
+        <v>12.3127035250666</v>
       </c>
       <c r="F7">
-        <v>28.81727803605685</v>
+        <v>39.32167317357829</v>
       </c>
       <c r="G7">
-        <v>37.71451529821233</v>
+        <v>46.13083631510892</v>
       </c>
       <c r="H7">
-        <v>12.08978749622361</v>
+        <v>18.52102836458327</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.699677803470153</v>
+        <v>9.908718687442303</v>
       </c>
       <c r="K7">
-        <v>18.03735586171484</v>
+        <v>16.43145120196255</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.54462543397383</v>
+        <v>18.43493626905627</v>
       </c>
       <c r="N7">
-        <v>12.81645304908321</v>
+        <v>19.31208212885617</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.952636555110732</v>
+        <v>4.858761721474189</v>
       </c>
       <c r="D8">
-        <v>4.351844325552367</v>
+        <v>7.396428153806302</v>
       </c>
       <c r="E8">
-        <v>7.386872627468493</v>
+        <v>12.28863525702856</v>
       </c>
       <c r="F8">
-        <v>29.91809229720717</v>
+        <v>39.32807025203237</v>
       </c>
       <c r="G8">
-        <v>39.65705039491281</v>
+        <v>46.27305831583207</v>
       </c>
       <c r="H8">
-        <v>12.274144386315</v>
+        <v>18.46929572113552</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.651664243267319</v>
+        <v>9.876445189543352</v>
       </c>
       <c r="K8">
-        <v>19.89496550300372</v>
+        <v>16.89217611403102</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.58069248626471</v>
+        <v>18.59440068944719</v>
       </c>
       <c r="N8">
-        <v>12.47790407858131</v>
+        <v>19.21737979255067</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.117271498638907</v>
+        <v>5.252606146126168</v>
       </c>
       <c r="D9">
-        <v>4.577175568094371</v>
+        <v>7.410505256881812</v>
       </c>
       <c r="E9">
-        <v>7.56803547843968</v>
+        <v>12.25441695865691</v>
       </c>
       <c r="F9">
-        <v>32.23613614443476</v>
+        <v>39.42776115322286</v>
       </c>
       <c r="G9">
-        <v>43.62527857963585</v>
+        <v>46.67656056958275</v>
       </c>
       <c r="H9">
-        <v>12.72817636581159</v>
+        <v>18.40024179116513</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.576722972523923</v>
+        <v>9.821639256876415</v>
       </c>
       <c r="K9">
-        <v>23.16342534313724</v>
+        <v>17.7889966738244</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.50064110734047</v>
+        <v>18.93204628351199</v>
       </c>
       <c r="N9">
-        <v>11.83095486676614</v>
+        <v>19.04712660155426</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.899245974295358</v>
+        <v>5.530567642026769</v>
       </c>
       <c r="D10">
-        <v>4.742099905538841</v>
+        <v>7.423672305096388</v>
       </c>
       <c r="E10">
-        <v>7.718865360088249</v>
+        <v>12.23717689605417</v>
       </c>
       <c r="F10">
-        <v>34.03201853277415</v>
+        <v>39.55411399369996</v>
       </c>
       <c r="G10">
-        <v>46.62408981975541</v>
+        <v>47.04779519710304</v>
       </c>
       <c r="H10">
-        <v>13.12324654839018</v>
+        <v>18.36942255080007</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.534500025007421</v>
+        <v>9.786524299521112</v>
       </c>
       <c r="K10">
-        <v>25.34527970329181</v>
+        <v>18.43659043447173</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.06227864236942</v>
+        <v>19.19361282699887</v>
       </c>
       <c r="N10">
-        <v>11.3621559647659</v>
+        <v>18.93134529168981</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.239819909147107</v>
+        <v>5.65390508228547</v>
       </c>
       <c r="D11">
-        <v>4.816825067667542</v>
+        <v>7.430263492957176</v>
       </c>
       <c r="E11">
-        <v>7.791501023469944</v>
+        <v>12.23104586490231</v>
       </c>
       <c r="F11">
-        <v>34.86876534280594</v>
+        <v>39.62307845625725</v>
       </c>
       <c r="G11">
-        <v>48.00502652170322</v>
+        <v>47.232555279359</v>
       </c>
       <c r="H11">
-        <v>13.31740269364171</v>
+        <v>18.35975702636797</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.518357463227323</v>
+        <v>9.771663925531811</v>
       </c>
       <c r="K11">
-        <v>26.29226934326289</v>
+        <v>18.72732662473103</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.77440077612606</v>
+        <v>19.31515475002739</v>
       </c>
       <c r="N11">
-        <v>11.14935680013592</v>
+        <v>18.88066792866392</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.366682417373921</v>
+        <v>5.700116779191081</v>
       </c>
       <c r="D12">
-        <v>4.845067473148752</v>
+        <v>7.432844773162235</v>
       </c>
       <c r="E12">
-        <v>7.819599551226916</v>
+        <v>12.22896992654153</v>
       </c>
       <c r="F12">
-        <v>35.18847828001468</v>
+        <v>39.65083720157936</v>
       </c>
       <c r="G12">
-        <v>48.53035590562513</v>
+        <v>47.30476467206592</v>
       </c>
       <c r="H12">
-        <v>13.39309077377521</v>
+        <v>18.35672511860646</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.512711379091682</v>
+        <v>9.766196520805353</v>
       </c>
       <c r="K12">
-        <v>26.64450454858134</v>
+        <v>18.83675700724378</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.03931477587494</v>
+        <v>19.36151352250118</v>
       </c>
       <c r="N12">
-        <v>11.06875406150031</v>
+        <v>18.86176227474083</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.339452716843297</v>
+        <v>5.690186898488985</v>
       </c>
       <c r="D13">
-        <v>4.838987536080249</v>
+        <v>7.432285071377501</v>
       </c>
       <c r="E13">
-        <v>7.813521407886302</v>
+        <v>12.22940609366965</v>
       </c>
       <c r="F13">
-        <v>35.1194947488341</v>
+        <v>39.64478592380594</v>
       </c>
       <c r="G13">
-        <v>48.41710929286681</v>
+        <v>47.28911392742916</v>
       </c>
       <c r="H13">
-        <v>13.37669220919051</v>
+        <v>18.35735012413652</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.5139061637364</v>
+        <v>9.76736691651829</v>
       </c>
       <c r="K13">
-        <v>26.56892463589113</v>
+        <v>18.8132204790726</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.98246983037639</v>
+        <v>19.35151504225088</v>
       </c>
       <c r="N13">
-        <v>11.08611567973408</v>
+        <v>18.86582130764478</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.250298719829617</v>
+        <v>5.657717085243011</v>
       </c>
       <c r="D14">
-        <v>4.81914973261952</v>
+        <v>7.430474152773549</v>
       </c>
       <c r="E14">
-        <v>7.793800732794215</v>
+        <v>12.23087015331432</v>
       </c>
       <c r="F14">
-        <v>34.89501087914134</v>
+        <v>39.62532930405315</v>
       </c>
       <c r="G14">
-        <v>48.04819733625648</v>
+        <v>47.23845124328998</v>
       </c>
       <c r="H14">
-        <v>13.32358567089667</v>
+        <v>18.35949498825132</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.517883443941994</v>
+        <v>9.771210915631451</v>
       </c>
       <c r="K14">
-        <v>26.32137450826845</v>
+        <v>18.73634346485765</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.79628981231495</v>
+        <v>19.31896222573618</v>
       </c>
       <c r="N14">
-        <v>11.14272649852918</v>
+        <v>18.87910685177316</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.195417404424134</v>
+        <v>5.637762824799215</v>
       </c>
       <c r="D15">
-        <v>4.806991132123742</v>
+        <v>7.429375992067275</v>
       </c>
       <c r="E15">
-        <v>7.781798933134147</v>
+        <v>12.23179892414746</v>
       </c>
       <c r="F15">
-        <v>34.75788090954992</v>
+        <v>39.61362529835736</v>
       </c>
       <c r="G15">
-        <v>47.82254178412097</v>
+        <v>47.20770997241492</v>
       </c>
       <c r="H15">
-        <v>13.29134111182989</v>
+        <v>18.36089064839239</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.520381243538211</v>
+        <v>9.773586292367725</v>
       </c>
       <c r="K15">
-        <v>26.1689190516864</v>
+        <v>18.68916430272132</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.68163465679236</v>
+        <v>19.29906510466807</v>
       </c>
       <c r="N15">
-        <v>11.17739689641219</v>
+        <v>18.88728166540929</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.876689922422006</v>
+        <v>5.522440603458745</v>
       </c>
       <c r="D16">
-        <v>4.737209384071571</v>
+        <v>7.423253560817984</v>
       </c>
       <c r="E16">
-        <v>7.71420059919011</v>
+        <v>12.23761198388289</v>
       </c>
       <c r="F16">
-        <v>33.97773315263989</v>
+        <v>39.54983747510109</v>
       </c>
       <c r="G16">
-        <v>46.53417647546041</v>
+        <v>47.03603706245028</v>
       </c>
       <c r="H16">
-        <v>13.11085603041995</v>
+        <v>18.37014201902485</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.53561882097853</v>
+        <v>9.787517847882574</v>
       </c>
       <c r="K16">
-        <v>25.28249027298098</v>
+        <v>18.41750291912233</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.01506726795597</v>
+        <v>19.18571829330053</v>
       </c>
       <c r="N16">
-        <v>11.37606495428375</v>
+        <v>18.93469711759538</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.677330802053589</v>
+        <v>5.450863221115363</v>
       </c>
       <c r="D17">
-        <v>4.694314918083842</v>
+        <v>7.419650886136693</v>
       </c>
       <c r="E17">
-        <v>7.673771336634902</v>
+        <v>12.24161623261135</v>
       </c>
       <c r="F17">
-        <v>33.50419914262677</v>
+        <v>39.51364236806709</v>
       </c>
       <c r="G17">
-        <v>45.74806105000921</v>
+        <v>46.934763061029</v>
       </c>
       <c r="H17">
-        <v>13.00389415730934</v>
+        <v>18.37693424239676</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.545769315295296</v>
+        <v>9.796349453822891</v>
       </c>
       <c r="K17">
-        <v>24.72715313637309</v>
+        <v>18.24977867599979</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.59753835150453</v>
+        <v>19.11681396594632</v>
       </c>
       <c r="N17">
-        <v>11.49800036674758</v>
+        <v>18.96429398045816</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.561233993251189</v>
+        <v>5.409403644316197</v>
       </c>
       <c r="D18">
-        <v>4.669615462643159</v>
+        <v>7.417635403430816</v>
       </c>
       <c r="E18">
-        <v>7.650895155772641</v>
+        <v>12.24408049617853</v>
       </c>
       <c r="F18">
-        <v>33.23369463314582</v>
+        <v>39.49390564750695</v>
       </c>
       <c r="G18">
-        <v>45.29748105231299</v>
+        <v>46.87801064116099</v>
       </c>
       <c r="H18">
-        <v>12.94372585390515</v>
+        <v>18.38125069128079</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.551894391013647</v>
+        <v>9.801533990765057</v>
       </c>
       <c r="K18">
-        <v>24.40343921535002</v>
+        <v>18.15295120631588</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.35417899005308</v>
+        <v>19.07742447173818</v>
       </c>
       <c r="N18">
-        <v>11.56818333874025</v>
+        <v>18.98150492364142</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.521677749364644</v>
+        <v>5.395317810765056</v>
       </c>
       <c r="D19">
-        <v>4.661248281572909</v>
+        <v>7.416962764806131</v>
       </c>
       <c r="E19">
-        <v>7.643214118531688</v>
+        <v>12.2449425373606</v>
       </c>
       <c r="F19">
-        <v>33.14242631836906</v>
+        <v>39.48740913899448</v>
       </c>
       <c r="G19">
-        <v>45.14519444802282</v>
+        <v>46.85905359657215</v>
       </c>
       <c r="H19">
-        <v>12.92358368325561</v>
+        <v>18.38278247230684</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.554016738094432</v>
+        <v>9.803307398000397</v>
       </c>
       <c r="K19">
-        <v>24.29309167751153</v>
+        <v>18.12010926722729</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.27122678126814</v>
+        <v>19.06413052806822</v>
       </c>
       <c r="N19">
-        <v>11.59195698612769</v>
+        <v>18.98736452757777</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.698700483535724</v>
+        <v>5.458513139264046</v>
       </c>
       <c r="D20">
-        <v>4.698884063467735</v>
+        <v>7.420028538952389</v>
       </c>
       <c r="E20">
-        <v>7.678035913589236</v>
+        <v>12.24117330013948</v>
       </c>
       <c r="F20">
-        <v>33.55441525046006</v>
+        <v>39.51738349523789</v>
       </c>
       <c r="G20">
-        <v>45.83158198978612</v>
+        <v>46.94538911392199</v>
       </c>
       <c r="H20">
-        <v>13.01513973308877</v>
+        <v>18.37616877614392</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.54465891657187</v>
+        <v>9.795398466467683</v>
       </c>
       <c r="K20">
-        <v>24.78671335992402</v>
+        <v>18.26767097036199</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.64231605813193</v>
+        <v>19.12412409950758</v>
       </c>
       <c r="N20">
-        <v>11.48501566618562</v>
+        <v>18.96112393936909</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.276541938103517</v>
+        <v>5.667267995417059</v>
       </c>
       <c r="D21">
-        <v>4.824978129270028</v>
+        <v>7.431003756660042</v>
       </c>
       <c r="E21">
-        <v>7.799576955586657</v>
+        <v>12.23043345713338</v>
       </c>
       <c r="F21">
-        <v>34.96086944144164</v>
+        <v>39.63099966045367</v>
       </c>
       <c r="G21">
-        <v>48.15649023455795</v>
+        <v>47.25327151640501</v>
       </c>
       <c r="H21">
-        <v>13.33912484434733</v>
+        <v>18.35884792495664</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.51670233276558</v>
+        <v>9.770077502231924</v>
       </c>
       <c r="K21">
-        <v>26.39425732904511</v>
+        <v>18.75894300268262</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.85110320302374</v>
+        <v>19.32851499785129</v>
       </c>
       <c r="N21">
-        <v>11.12609981356814</v>
+        <v>18.8751968505353</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.641961046974961</v>
+        <v>5.800806771521789</v>
       </c>
       <c r="D22">
-        <v>4.907067570524883</v>
+        <v>7.438673567756491</v>
       </c>
       <c r="E22">
-        <v>7.882475451097201</v>
+        <v>12.22484655913107</v>
       </c>
       <c r="F22">
-        <v>35.89674949687617</v>
+        <v>39.71482797737878</v>
       </c>
       <c r="G22">
-        <v>49.68999863695237</v>
+        <v>47.46755309355008</v>
       </c>
       <c r="H22">
-        <v>13.56353486451276</v>
+        <v>18.35119023065669</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.501165634917133</v>
+        <v>9.754460680977582</v>
       </c>
       <c r="K22">
-        <v>27.40785035581228</v>
+        <v>19.07609479878182</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.61349331629402</v>
+        <v>19.46402410872518</v>
       </c>
       <c r="N22">
-        <v>10.89136234970635</v>
+        <v>18.82069756758911</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.448023580837949</v>
+        <v>5.729813516448883</v>
       </c>
       <c r="D23">
-        <v>4.863287224223503</v>
+        <v>7.434534969232932</v>
       </c>
       <c r="E23">
-        <v>7.837908700449288</v>
+        <v>12.22769748039933</v>
       </c>
       <c r="F23">
-        <v>35.39571079866673</v>
+        <v>39.66921455064681</v>
       </c>
       <c r="G23">
-        <v>48.87022935553063</v>
+        <v>47.3520059548576</v>
       </c>
       <c r="H23">
-        <v>13.44257301913193</v>
+        <v>18.35494155892561</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.509198378525761</v>
+        <v>9.762710481040889</v>
       </c>
       <c r="K23">
-        <v>26.87020134708926</v>
+        <v>18.9072184847166</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.20907085330842</v>
+        <v>19.39153521802222</v>
       </c>
       <c r="N23">
-        <v>11.01669222993254</v>
+        <v>18.8496336188174</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.68904387394033</v>
+        <v>5.45505556951313</v>
       </c>
       <c r="D24">
-        <v>4.696818472973732</v>
+        <v>7.419857628408703</v>
       </c>
       <c r="E24">
-        <v>7.676106755862595</v>
+        <v>12.2413730447602</v>
       </c>
       <c r="F24">
-        <v>33.5317071393309</v>
+        <v>39.51568879082757</v>
       </c>
       <c r="G24">
-        <v>45.79381790898538</v>
+        <v>46.94058048936524</v>
       </c>
       <c r="H24">
-        <v>13.01005148632051</v>
+        <v>18.37651356176006</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.545160028289588</v>
+        <v>9.795828074138416</v>
       </c>
       <c r="K24">
-        <v>24.75980003589313</v>
+        <v>18.25958310327826</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.6220823970405</v>
+        <v>19.12081848619906</v>
       </c>
       <c r="N24">
-        <v>11.49088579159431</v>
+        <v>18.96255650641541</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.815412744181454</v>
+        <v>5.147826432432174</v>
       </c>
       <c r="D25">
-        <v>4.516263460266075</v>
+        <v>7.406196941370721</v>
       </c>
       <c r="E25">
-        <v>7.515967218513212</v>
+        <v>12.26228547495228</v>
       </c>
       <c r="F25">
-        <v>31.59250056296436</v>
+        <v>39.39145551689777</v>
       </c>
       <c r="G25">
-        <v>42.53638656546059</v>
+        <v>46.55416342183273</v>
       </c>
       <c r="H25">
-        <v>12.59491078786434</v>
+        <v>18.41543654892262</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.594829864417634</v>
+        <v>9.835559723269949</v>
       </c>
       <c r="K25">
-        <v>22.31842554990579</v>
+        <v>17.54786497166119</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.99414683462556</v>
+        <v>18.83820634874784</v>
       </c>
       <c r="N25">
-        <v>12.00453132351188</v>
+        <v>19.09154215609399</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_62/res_line/loading_percent.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.914230582351781</v>
+        <v>7.122356060454041</v>
       </c>
       <c r="D2">
-        <v>7.39804222745583</v>
+        <v>4.382977744726658</v>
       </c>
       <c r="E2">
-        <v>12.28299269679532</v>
+        <v>7.409912475681677</v>
       </c>
       <c r="F2">
-        <v>39.33569652803837</v>
+        <v>30.22733721942647</v>
       </c>
       <c r="G2">
-        <v>46.32005703397751</v>
+        <v>40.19476922999856</v>
       </c>
       <c r="H2">
-        <v>18.45746421273209</v>
+        <v>12.33016122254516</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.868275483724016</v>
+        <v>5.639917035873006</v>
       </c>
       <c r="K2">
-        <v>17.0168400435231</v>
+        <v>20.37264830347414</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.63935577571864</v>
+        <v>15.85422500912234</v>
       </c>
       <c r="N2">
-        <v>19.19277078021837</v>
+        <v>12.38745108671475</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.752483729100021</v>
+        <v>6.62043468132534</v>
       </c>
       <c r="D3">
-        <v>7.393720686979336</v>
+        <v>4.292755289050239</v>
       </c>
       <c r="E3">
-        <v>12.30034240665037</v>
+        <v>7.345184405221453</v>
       </c>
       <c r="F3">
-        <v>39.32018844834531</v>
+        <v>29.34268273991583</v>
       </c>
       <c r="G3">
-        <v>46.19323033242995</v>
+        <v>38.64774364107033</v>
       </c>
       <c r="H3">
-        <v>18.49423114194269</v>
+        <v>12.1745793249979</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.892613564710095</v>
+        <v>5.675415492419305</v>
       </c>
       <c r="K3">
-        <v>16.65498122017688</v>
+        <v>18.95863505642019</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>18.5109125860743</v>
+        <v>15.05267512016972</v>
       </c>
       <c r="N3">
-        <v>19.26531851198388</v>
+        <v>12.65116875900939</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.651922307078825</v>
+        <v>6.295997842052101</v>
       </c>
       <c r="D4">
-        <v>7.391667335093565</v>
+        <v>4.237533942360599</v>
       </c>
       <c r="E4">
-        <v>12.31263209739727</v>
+        <v>7.308882634230248</v>
       </c>
       <c r="F4">
-        <v>39.32163919041295</v>
+        <v>28.82010036311512</v>
       </c>
       <c r="G4">
-        <v>46.13114002680524</v>
+        <v>37.71956210831067</v>
       </c>
       <c r="H4">
-        <v>18.52087232557314</v>
+        <v>12.09022530248154</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.908628130634932</v>
+        <v>5.699539819922887</v>
       </c>
       <c r="K4">
-        <v>16.43267218940929</v>
+        <v>18.04250545876078</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>18.43534354674623</v>
+        <v>14.5474313628749</v>
       </c>
       <c r="N4">
-        <v>19.31182189253912</v>
+        <v>12.81554344597014</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.610702188463699</v>
+        <v>6.159649763239327</v>
       </c>
       <c r="D5">
-        <v>7.390982365483244</v>
+        <v>4.215095039834766</v>
       </c>
       <c r="E5">
-        <v>12.31805203745495</v>
+        <v>7.294942302904111</v>
       </c>
       <c r="F5">
-        <v>39.32498574557949</v>
+        <v>28.61242113734067</v>
       </c>
       <c r="G5">
-        <v>46.10981455375608</v>
+        <v>37.3471231617667</v>
       </c>
       <c r="H5">
-        <v>18.53274818944116</v>
+        <v>12.05856970278979</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.915423808906652</v>
+        <v>5.709940954394171</v>
       </c>
       <c r="K5">
-        <v>16.34218073438851</v>
+        <v>17.65700057456408</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.4054034384413</v>
+        <v>14.33848112019372</v>
       </c>
       <c r="N5">
-        <v>19.33126676645111</v>
+        <v>12.88319484740983</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.603845335833752</v>
+        <v>6.136757954865208</v>
       </c>
       <c r="D6">
-        <v>7.390877819752781</v>
+        <v>4.211373561886943</v>
       </c>
       <c r="E6">
-        <v>12.31897689000885</v>
+        <v>7.292678658033551</v>
       </c>
       <c r="F6">
-        <v>39.32570770357341</v>
+        <v>28.57825762170533</v>
       </c>
       <c r="G6">
-        <v>46.10651380468994</v>
+        <v>37.28564094338977</v>
       </c>
       <c r="H6">
-        <v>18.53478163986943</v>
+        <v>12.05347482418141</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.916568519812607</v>
+        <v>5.711702075313928</v>
       </c>
       <c r="K6">
-        <v>16.32716476049266</v>
+        <v>17.59224890409941</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.40048427678995</v>
+        <v>14.30360798754151</v>
       </c>
       <c r="N6">
-        <v>19.33452548499307</v>
+        <v>12.89447004994823</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.651367271286677</v>
+        <v>6.294175821227971</v>
       </c>
       <c r="D7">
-        <v>7.391657481607441</v>
+        <v>4.237231036136293</v>
       </c>
       <c r="E7">
-        <v>12.3127035250666</v>
+        <v>7.308691193525305</v>
       </c>
       <c r="F7">
-        <v>39.32167317357829</v>
+        <v>28.81727803605692</v>
       </c>
       <c r="G7">
-        <v>46.13083631510892</v>
+        <v>37.7145152982124</v>
       </c>
       <c r="H7">
-        <v>18.52102836458327</v>
+        <v>12.08978749622363</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.908718687442303</v>
+        <v>5.699677803470071</v>
       </c>
       <c r="K7">
-        <v>16.43145120196255</v>
+        <v>18.03735586171479</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>18.43493626905627</v>
+        <v>14.54462543397383</v>
       </c>
       <c r="N7">
-        <v>19.31208212885617</v>
+        <v>12.81645304908328</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.858761721474189</v>
+        <v>6.95263655511079</v>
       </c>
       <c r="D8">
-        <v>7.396428153806302</v>
+        <v>4.351844325552266</v>
       </c>
       <c r="E8">
-        <v>12.28863525702856</v>
+        <v>7.386872627468437</v>
       </c>
       <c r="F8">
-        <v>39.32807025203237</v>
+        <v>29.91809229720714</v>
       </c>
       <c r="G8">
-        <v>46.27305831583207</v>
+        <v>39.65705039491274</v>
       </c>
       <c r="H8">
-        <v>18.46929572113552</v>
+        <v>12.27414438631502</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.876445189543352</v>
+        <v>5.651664243267318</v>
       </c>
       <c r="K8">
-        <v>16.89217611403102</v>
+        <v>19.89496550300372</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.59440068944719</v>
+        <v>15.5806924862647</v>
       </c>
       <c r="N8">
-        <v>19.21737979255067</v>
+        <v>12.47790407858127</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.252606146126168</v>
+        <v>8.117271498638853</v>
       </c>
       <c r="D9">
-        <v>7.410505256881812</v>
+        <v>4.577175568094288</v>
       </c>
       <c r="E9">
-        <v>12.25441695865691</v>
+        <v>7.568035478439594</v>
       </c>
       <c r="F9">
-        <v>39.42776115322286</v>
+        <v>32.23613614443491</v>
       </c>
       <c r="G9">
-        <v>46.67656056958275</v>
+        <v>43.62527857963603</v>
       </c>
       <c r="H9">
-        <v>18.40024179116513</v>
+        <v>12.72817636581169</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.821639256876415</v>
+        <v>5.576722972523864</v>
       </c>
       <c r="K9">
-        <v>17.7889966738244</v>
+        <v>23.16342534313715</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.93204628351199</v>
+        <v>17.5006411073405</v>
       </c>
       <c r="N9">
-        <v>19.04712660155426</v>
+        <v>11.8309548667662</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.530567642026769</v>
+        <v>8.899245974295379</v>
       </c>
       <c r="D10">
-        <v>7.423672305096388</v>
+        <v>4.74209990553879</v>
       </c>
       <c r="E10">
-        <v>12.23717689605417</v>
+        <v>7.718865360088286</v>
       </c>
       <c r="F10">
-        <v>39.55411399369996</v>
+        <v>34.03201853277417</v>
       </c>
       <c r="G10">
-        <v>47.04779519710304</v>
+        <v>46.62408981975545</v>
       </c>
       <c r="H10">
-        <v>18.36942255080007</v>
+        <v>13.12324654839021</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.786524299521112</v>
+        <v>5.534500025007446</v>
       </c>
       <c r="K10">
-        <v>18.43659043447173</v>
+        <v>25.3452797032918</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.19361282699887</v>
+        <v>19.06227864236939</v>
       </c>
       <c r="N10">
-        <v>18.93134529168981</v>
+        <v>11.36215596476597</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.65390508228547</v>
+        <v>9.23981990914705</v>
       </c>
       <c r="D11">
-        <v>7.430263492957176</v>
+        <v>4.816825067667518</v>
       </c>
       <c r="E11">
-        <v>12.23104586490231</v>
+        <v>7.791501023469944</v>
       </c>
       <c r="F11">
-        <v>39.62307845625725</v>
+        <v>34.86876534280591</v>
       </c>
       <c r="G11">
-        <v>47.232555279359</v>
+        <v>48.00502652170318</v>
       </c>
       <c r="H11">
-        <v>18.35975702636797</v>
+        <v>13.31740269364169</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.771663925531811</v>
+        <v>5.518357463227373</v>
       </c>
       <c r="K11">
-        <v>18.72732662473103</v>
+        <v>26.29226934326286</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.31515475002739</v>
+        <v>19.77440077612605</v>
       </c>
       <c r="N11">
-        <v>18.88066792866392</v>
+        <v>11.14935680013588</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.700116779191081</v>
+        <v>9.366682417373914</v>
       </c>
       <c r="D12">
-        <v>7.432844773162235</v>
+        <v>4.845067473148801</v>
       </c>
       <c r="E12">
-        <v>12.22896992654153</v>
+        <v>7.819599551226957</v>
       </c>
       <c r="F12">
-        <v>39.65083720157936</v>
+        <v>35.18847828001471</v>
       </c>
       <c r="G12">
-        <v>47.30476467206592</v>
+        <v>48.5303559056252</v>
       </c>
       <c r="H12">
-        <v>18.35672511860646</v>
+        <v>13.3930907737752</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.766196520805353</v>
+        <v>5.512711379091676</v>
       </c>
       <c r="K12">
-        <v>18.83675700724378</v>
+        <v>26.64450454858138</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.36151352250118</v>
+        <v>20.03931477587498</v>
       </c>
       <c r="N12">
-        <v>18.86176227474083</v>
+        <v>11.06875406150034</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.690186898488985</v>
+        <v>9.339452716843443</v>
       </c>
       <c r="D13">
-        <v>7.432285071377501</v>
+        <v>4.83898753608015</v>
       </c>
       <c r="E13">
-        <v>12.22940609366965</v>
+        <v>7.813521407886226</v>
       </c>
       <c r="F13">
-        <v>39.64478592380594</v>
+        <v>35.11949474883414</v>
       </c>
       <c r="G13">
-        <v>47.28911392742916</v>
+        <v>48.41710929286698</v>
       </c>
       <c r="H13">
-        <v>18.35735012413652</v>
+        <v>13.37669220919049</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.76736691651829</v>
+        <v>5.513906163736464</v>
       </c>
       <c r="K13">
-        <v>18.8132204790726</v>
+        <v>26.56892463589116</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.35151504225088</v>
+        <v>19.98246983037642</v>
       </c>
       <c r="N13">
-        <v>18.86582130764478</v>
+        <v>11.08611567973407</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.657717085243011</v>
+        <v>9.25029871982966</v>
       </c>
       <c r="D14">
-        <v>7.430474152773549</v>
+        <v>4.819149732619517</v>
       </c>
       <c r="E14">
-        <v>12.23087015331432</v>
+        <v>7.793800732794205</v>
       </c>
       <c r="F14">
-        <v>39.62532930405315</v>
+        <v>34.8950108791413</v>
       </c>
       <c r="G14">
-        <v>47.23845124328998</v>
+        <v>48.04819733625652</v>
       </c>
       <c r="H14">
-        <v>18.35949498825132</v>
+        <v>13.32358567089665</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.771210915631451</v>
+        <v>5.517883443941962</v>
       </c>
       <c r="K14">
-        <v>18.73634346485765</v>
+        <v>26.32137450826851</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.31896222573618</v>
+        <v>19.796289812315</v>
       </c>
       <c r="N14">
-        <v>18.87910685177316</v>
+        <v>11.14272649852904</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.637762824799215</v>
+        <v>9.195417404424127</v>
       </c>
       <c r="D15">
-        <v>7.429375992067275</v>
+        <v>4.806991132123692</v>
       </c>
       <c r="E15">
-        <v>12.23179892414746</v>
+        <v>7.781798933134136</v>
       </c>
       <c r="F15">
-        <v>39.61362529835736</v>
+        <v>34.75788090954995</v>
       </c>
       <c r="G15">
-        <v>47.20770997241492</v>
+        <v>47.82254178412106</v>
       </c>
       <c r="H15">
-        <v>18.36089064839239</v>
+        <v>13.29134111182984</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.773586292367725</v>
+        <v>5.520381243538186</v>
       </c>
       <c r="K15">
-        <v>18.68916430272132</v>
+        <v>26.1689190516864</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.29906510466807</v>
+        <v>19.68163465679235</v>
       </c>
       <c r="N15">
-        <v>18.88728166540929</v>
+        <v>11.17739689641212</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.522440603458745</v>
+        <v>8.876689922421951</v>
       </c>
       <c r="D16">
-        <v>7.423253560817984</v>
+        <v>4.737209384071578</v>
       </c>
       <c r="E16">
-        <v>12.23761198388289</v>
+        <v>7.71420059919011</v>
       </c>
       <c r="F16">
-        <v>39.54983747510109</v>
+        <v>33.97773315263989</v>
       </c>
       <c r="G16">
-        <v>47.03603706245028</v>
+        <v>46.53417647546046</v>
       </c>
       <c r="H16">
-        <v>18.37014201902485</v>
+        <v>13.11085603041993</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.787517847882574</v>
+        <v>5.535618820978471</v>
       </c>
       <c r="K16">
-        <v>18.41750291912233</v>
+        <v>25.28249027298102</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.18571829330053</v>
+        <v>19.01506726795598</v>
       </c>
       <c r="N16">
-        <v>18.93469711759538</v>
+        <v>11.37606495428382</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.450863221115363</v>
+        <v>8.677330802053575</v>
       </c>
       <c r="D17">
-        <v>7.419650886136693</v>
+        <v>4.694314918083808</v>
       </c>
       <c r="E17">
-        <v>12.24161623261135</v>
+        <v>7.673771336634823</v>
       </c>
       <c r="F17">
-        <v>39.51364236806709</v>
+        <v>33.50419914262663</v>
       </c>
       <c r="G17">
-        <v>46.934763061029</v>
+        <v>45.74806105000904</v>
       </c>
       <c r="H17">
-        <v>18.37693424239676</v>
+        <v>13.00389415730924</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.796349453822891</v>
+        <v>5.54576931529521</v>
       </c>
       <c r="K17">
-        <v>18.24977867599979</v>
+        <v>24.72715313637315</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>19.11681396594632</v>
+        <v>18.5975383515046</v>
       </c>
       <c r="N17">
-        <v>18.96429398045816</v>
+        <v>11.49800036674745</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.409403644316197</v>
+        <v>8.561233993251175</v>
       </c>
       <c r="D18">
-        <v>7.417635403430816</v>
+        <v>4.669615462643056</v>
       </c>
       <c r="E18">
-        <v>12.24408049617853</v>
+        <v>7.650895155772552</v>
       </c>
       <c r="F18">
-        <v>39.49390564750695</v>
+        <v>33.23369463314587</v>
       </c>
       <c r="G18">
-        <v>46.87801064116099</v>
+        <v>45.29748105231305</v>
       </c>
       <c r="H18">
-        <v>18.38125069128079</v>
+        <v>12.94372585390517</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.801533990765057</v>
+        <v>5.551894391013601</v>
       </c>
       <c r="K18">
-        <v>18.15295120631588</v>
+        <v>24.40343921534994</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.07742447173818</v>
+        <v>18.35417899005305</v>
       </c>
       <c r="N18">
-        <v>18.98150492364142</v>
+        <v>11.56818333874028</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.395317810765056</v>
+        <v>8.521677749364731</v>
       </c>
       <c r="D19">
-        <v>7.416962764806131</v>
+        <v>4.661248281572783</v>
       </c>
       <c r="E19">
-        <v>12.2449425373606</v>
+        <v>7.643214118531573</v>
       </c>
       <c r="F19">
-        <v>39.48740913899448</v>
+        <v>33.142426318369</v>
       </c>
       <c r="G19">
-        <v>46.85905359657215</v>
+        <v>45.14519444802283</v>
       </c>
       <c r="H19">
-        <v>18.38278247230684</v>
+        <v>12.92358368325558</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.803307398000397</v>
+        <v>5.554016738094381</v>
       </c>
       <c r="K19">
-        <v>18.12010926722729</v>
+        <v>24.29309167751159</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.06413052806822</v>
+        <v>18.27122678126823</v>
       </c>
       <c r="N19">
-        <v>18.98736452757777</v>
+        <v>11.59195698612769</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.458513139264046</v>
+        <v>8.69870048353572</v>
       </c>
       <c r="D20">
-        <v>7.420028538952389</v>
+        <v>4.698884063467826</v>
       </c>
       <c r="E20">
-        <v>12.24117330013948</v>
+        <v>7.678035913589324</v>
       </c>
       <c r="F20">
-        <v>39.51738349523789</v>
+        <v>33.55441525045998</v>
       </c>
       <c r="G20">
-        <v>46.94538911392199</v>
+        <v>45.83158198978605</v>
       </c>
       <c r="H20">
-        <v>18.37616877614392</v>
+        <v>13.01513973308873</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.795398466467683</v>
+        <v>5.544658916571918</v>
       </c>
       <c r="K20">
-        <v>18.26767097036199</v>
+        <v>24.78671335992406</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.12412409950758</v>
+        <v>18.64231605813194</v>
       </c>
       <c r="N20">
-        <v>18.96112393936909</v>
+        <v>11.48501566618552</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.667267995417059</v>
+        <v>9.276541938103449</v>
       </c>
       <c r="D21">
-        <v>7.431003756660042</v>
+        <v>4.82497812926998</v>
       </c>
       <c r="E21">
-        <v>12.23043345713338</v>
+        <v>7.799576955586665</v>
       </c>
       <c r="F21">
-        <v>39.63099966045367</v>
+        <v>34.96086944144163</v>
       </c>
       <c r="G21">
-        <v>47.25327151640501</v>
+        <v>48.15649023455801</v>
       </c>
       <c r="H21">
-        <v>18.35884792495664</v>
+        <v>13.33912484434729</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.770077502231924</v>
+        <v>5.516702332765584</v>
       </c>
       <c r="K21">
-        <v>18.75894300268262</v>
+        <v>26.3942573290452</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.32851499785129</v>
+        <v>19.85110320302383</v>
       </c>
       <c r="N21">
-        <v>18.8751968505353</v>
+        <v>11.12609981356804</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.800806771521789</v>
+        <v>9.641961046974975</v>
       </c>
       <c r="D22">
-        <v>7.438673567756491</v>
+        <v>4.907067570524911</v>
       </c>
       <c r="E22">
-        <v>12.22484655913107</v>
+        <v>7.882475451097233</v>
       </c>
       <c r="F22">
-        <v>39.71482797737878</v>
+        <v>35.89674949687607</v>
       </c>
       <c r="G22">
-        <v>47.46755309355008</v>
+        <v>49.68999863695238</v>
       </c>
       <c r="H22">
-        <v>18.35119023065669</v>
+        <v>13.56353486451271</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.754460680977582</v>
+        <v>5.501165634917187</v>
       </c>
       <c r="K22">
-        <v>19.07609479878182</v>
+        <v>27.40785035581233</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.46402410872518</v>
+        <v>20.61349331629405</v>
       </c>
       <c r="N22">
-        <v>18.82069756758911</v>
+        <v>10.89136234970625</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.729813516448883</v>
+        <v>9.448023580837816</v>
       </c>
       <c r="D23">
-        <v>7.434534969232932</v>
+        <v>4.86328722422351</v>
       </c>
       <c r="E23">
-        <v>12.22769748039933</v>
+        <v>7.837908700449336</v>
       </c>
       <c r="F23">
-        <v>39.66921455064681</v>
+        <v>35.39571079866667</v>
       </c>
       <c r="G23">
-        <v>47.3520059548576</v>
+        <v>48.87022935553058</v>
       </c>
       <c r="H23">
-        <v>18.35494155892561</v>
+        <v>13.44257301913187</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.762710481040889</v>
+        <v>5.509198378525789</v>
       </c>
       <c r="K23">
-        <v>18.9072184847166</v>
+        <v>26.87020134708933</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.39153521802222</v>
+        <v>20.20907085330847</v>
       </c>
       <c r="N23">
-        <v>18.8496336188174</v>
+        <v>11.01669222993247</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.45505556951313</v>
+        <v>8.689043873940202</v>
       </c>
       <c r="D24">
-        <v>7.419857628408703</v>
+        <v>4.696818472973775</v>
       </c>
       <c r="E24">
-        <v>12.2413730447602</v>
+        <v>7.67610675586264</v>
       </c>
       <c r="F24">
-        <v>39.51568879082757</v>
+        <v>33.53170713933086</v>
       </c>
       <c r="G24">
-        <v>46.94058048936524</v>
+        <v>45.79381790898535</v>
       </c>
       <c r="H24">
-        <v>18.37651356176006</v>
+        <v>13.01005148632046</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.795828074138416</v>
+        <v>5.545160028289589</v>
       </c>
       <c r="K24">
-        <v>18.25958310327826</v>
+        <v>24.75980003589315</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.12081848619906</v>
+        <v>18.6220823970405</v>
       </c>
       <c r="N24">
-        <v>18.96255650641541</v>
+        <v>11.49088579159431</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.147826432432174</v>
+        <v>7.815412744181391</v>
       </c>
       <c r="D25">
-        <v>7.406196941370721</v>
+        <v>4.516263460266068</v>
       </c>
       <c r="E25">
-        <v>12.26228547495228</v>
+        <v>7.51596721851326</v>
       </c>
       <c r="F25">
-        <v>39.39145551689777</v>
+        <v>31.59250056296429</v>
       </c>
       <c r="G25">
-        <v>46.55416342183273</v>
+        <v>42.53638656546047</v>
       </c>
       <c r="H25">
-        <v>18.41543654892262</v>
+        <v>12.59491078786434</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.835559723269949</v>
+        <v>5.594829864417696</v>
       </c>
       <c r="K25">
-        <v>17.54786497166119</v>
+        <v>22.31842554990584</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.83820634874784</v>
+        <v>16.99414683462556</v>
       </c>
       <c r="N25">
-        <v>19.09154215609399</v>
+        <v>12.00453132351185</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_62/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.122356060454041</v>
+        <v>7.987907795718431</v>
       </c>
       <c r="D2">
-        <v>4.382977744726658</v>
+        <v>4.359925317546703</v>
       </c>
       <c r="E2">
-        <v>7.409912475681677</v>
+        <v>16.79650981721037</v>
       </c>
       <c r="F2">
-        <v>30.22733721942647</v>
+        <v>14.22098800537944</v>
       </c>
       <c r="G2">
-        <v>40.19476922999856</v>
+        <v>16.70200397352145</v>
       </c>
       <c r="H2">
-        <v>12.33016122254516</v>
+        <v>4.816350457641773</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>4.733134793938761</v>
       </c>
       <c r="J2">
-        <v>5.639917035873006</v>
+        <v>6.568768270221807</v>
       </c>
       <c r="K2">
-        <v>20.37264830347414</v>
+        <v>9.227144468717714</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.85422500912234</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>12.38745108671475</v>
+        <v>12.63571578932035</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>98.41868532878546</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>10.36270106887598</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.62043468132534</v>
+        <v>7.963046330884546</v>
       </c>
       <c r="D3">
-        <v>4.292755289050239</v>
+        <v>4.191110872398277</v>
       </c>
       <c r="E3">
-        <v>7.345184405221453</v>
+        <v>15.70574314097223</v>
       </c>
       <c r="F3">
-        <v>29.34268273991583</v>
+        <v>13.73140754371707</v>
       </c>
       <c r="G3">
-        <v>38.64774364107033</v>
+        <v>15.86098354731625</v>
       </c>
       <c r="H3">
-        <v>12.1745793249979</v>
+        <v>4.209815338168578</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>4.389444837488974</v>
       </c>
       <c r="J3">
-        <v>5.675415492419305</v>
+        <v>6.667355410114824</v>
       </c>
       <c r="K3">
-        <v>18.95863505642019</v>
+        <v>9.533751176695809</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.05267512016972</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>12.65116875900939</v>
+        <v>11.77287195884433</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>91.34884637809321</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>10.31096514554955</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.295997842052101</v>
+        <v>7.945808472679055</v>
       </c>
       <c r="D4">
-        <v>4.237533942360599</v>
+        <v>4.081804140903025</v>
       </c>
       <c r="E4">
-        <v>7.308882634230248</v>
+        <v>15.07770842276414</v>
       </c>
       <c r="F4">
-        <v>28.82010036311512</v>
+        <v>13.46307887691218</v>
       </c>
       <c r="G4">
-        <v>37.71956210831067</v>
+        <v>15.4028914000882</v>
       </c>
       <c r="H4">
-        <v>12.09022530248154</v>
+        <v>3.841240303835698</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4.177651999704084</v>
       </c>
       <c r="J4">
-        <v>5.699539819922887</v>
+        <v>6.739311875718832</v>
       </c>
       <c r="K4">
-        <v>18.04250545876078</v>
+        <v>9.751302782090127</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.5474313628749</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>12.81554344597014</v>
+        <v>11.21694212567232</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>86.8375593245466</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>10.31163773417048</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.159649763239327</v>
+        <v>7.947480799535872</v>
       </c>
       <c r="D5">
-        <v>4.215095039834766</v>
+        <v>4.037811180032705</v>
       </c>
       <c r="E5">
-        <v>7.294942302904111</v>
+        <v>14.85749335090519</v>
       </c>
       <c r="F5">
-        <v>28.61242113734067</v>
+        <v>13.35280960778883</v>
       </c>
       <c r="G5">
-        <v>37.3471231617667</v>
+        <v>15.21407841742906</v>
       </c>
       <c r="H5">
-        <v>12.05856970278979</v>
+        <v>3.691203776381244</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4.090843171683156</v>
       </c>
       <c r="J5">
-        <v>5.709940954394171</v>
+        <v>6.768798367398489</v>
       </c>
       <c r="K5">
-        <v>17.65700057456408</v>
+        <v>9.839397669970197</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.33848112019372</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>12.88319484740983</v>
+        <v>10.98247882814956</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>84.95308080811026</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>10.31275797802385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.136757954865208</v>
+        <v>7.958777830360608</v>
       </c>
       <c r="D6">
-        <v>4.211373561886943</v>
+        <v>4.032738042203008</v>
       </c>
       <c r="E6">
-        <v>7.292678658033551</v>
+        <v>14.8261017865344</v>
       </c>
       <c r="F6">
-        <v>28.57825762170533</v>
+        <v>13.32438785030016</v>
       </c>
       <c r="G6">
-        <v>37.28564094338977</v>
+        <v>15.16368881029153</v>
       </c>
       <c r="H6">
-        <v>12.05347482418141</v>
+        <v>3.665900874192127</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4.076402061210381</v>
       </c>
       <c r="J6">
-        <v>5.711702075313928</v>
+        <v>6.770904061865996</v>
       </c>
       <c r="K6">
-        <v>17.59224890409941</v>
+        <v>9.846079672376952</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.30360798754151</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>12.89447004994823</v>
+        <v>10.9418680452587</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>84.63721472651943</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>10.30544389273705</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.294175821227971</v>
+        <v>7.975915261951724</v>
       </c>
       <c r="D7">
-        <v>4.237231036136293</v>
+        <v>4.087449823140225</v>
       </c>
       <c r="E7">
-        <v>7.308691193525305</v>
+        <v>15.08937296735579</v>
       </c>
       <c r="F7">
-        <v>28.81727803605692</v>
+        <v>13.43290044289286</v>
       </c>
       <c r="G7">
-        <v>37.7145152982124</v>
+        <v>15.34658294909759</v>
       </c>
       <c r="H7">
-        <v>12.08978749622363</v>
+        <v>3.838122336312913</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4.176246464775233</v>
       </c>
       <c r="J7">
-        <v>5.699677803470071</v>
+        <v>6.731613351520056</v>
       </c>
       <c r="K7">
-        <v>18.03735586171479</v>
+        <v>9.729422162940248</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.54462543397383</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>12.81645304908328</v>
+        <v>11.21048313499271</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>86.8120801650101</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>10.28990909370727</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.95263655511079</v>
+        <v>8.019537767218916</v>
       </c>
       <c r="D8">
-        <v>4.351844325552266</v>
+        <v>4.310854894934553</v>
       </c>
       <c r="E8">
-        <v>7.386872627468437</v>
+        <v>16.44554603037189</v>
       </c>
       <c r="F8">
-        <v>29.91809229720714</v>
+        <v>14.00843888645944</v>
       </c>
       <c r="G8">
-        <v>39.65705039491274</v>
+        <v>16.33175429955473</v>
       </c>
       <c r="H8">
-        <v>12.27414438631502</v>
+        <v>4.604740597415542</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>4.613996690435058</v>
       </c>
       <c r="J8">
-        <v>5.651664243267318</v>
+        <v>6.589199988904689</v>
       </c>
       <c r="K8">
-        <v>19.89496550300372</v>
+        <v>9.293696953449032</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.5806924862647</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>12.47790407858127</v>
+        <v>12.33943640643637</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>96.01386027690693</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>10.30863911750229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.117271498638853</v>
+        <v>8.024956188938836</v>
       </c>
       <c r="D9">
-        <v>4.577175568094288</v>
+        <v>4.689547705382197</v>
       </c>
       <c r="E9">
-        <v>7.568035478439594</v>
+        <v>18.99235401159331</v>
       </c>
       <c r="F9">
-        <v>32.23613614443491</v>
+        <v>15.46200353862316</v>
       </c>
       <c r="G9">
-        <v>43.62527857963603</v>
+        <v>18.85468056764254</v>
       </c>
       <c r="H9">
-        <v>12.72817636581169</v>
+        <v>6.167553947124284</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>5.479026884015152</v>
       </c>
       <c r="J9">
-        <v>5.576722972523864</v>
+        <v>6.43193438588087</v>
       </c>
       <c r="K9">
-        <v>23.16342534313715</v>
+        <v>8.781077454482535</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.5006411073405</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>11.8309548667662</v>
+        <v>14.36896281090405</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>112.8867523264593</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>10.6821369845934</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.899245974295379</v>
+        <v>8.107116810529433</v>
       </c>
       <c r="D10">
-        <v>4.74209990553879</v>
+        <v>4.959225355830523</v>
       </c>
       <c r="E10">
-        <v>7.718865360088286</v>
+        <v>21.00365020280455</v>
       </c>
       <c r="F10">
-        <v>34.03201853277417</v>
+        <v>16.6431463121847</v>
       </c>
       <c r="G10">
-        <v>46.62408981975545</v>
+        <v>21.07747108461353</v>
       </c>
       <c r="H10">
-        <v>13.12324654839021</v>
+        <v>7.393840152563957</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>6.138722527611248</v>
       </c>
       <c r="J10">
-        <v>5.534500025007446</v>
+        <v>6.360002890036295</v>
       </c>
       <c r="K10">
-        <v>25.3452797032918</v>
+        <v>8.560489118956697</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.06227864236939</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>11.36215596476597</v>
+        <v>15.92126817774047</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>124.9033213601316</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>11.08311393270242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.23981990914705</v>
+        <v>9.083625858807515</v>
       </c>
       <c r="D11">
-        <v>4.816825067667518</v>
+        <v>5.299057043163831</v>
       </c>
       <c r="E11">
-        <v>7.791501023469944</v>
+        <v>23.97972694890492</v>
       </c>
       <c r="F11">
-        <v>34.86876534280591</v>
+        <v>16.4336313546781</v>
       </c>
       <c r="G11">
-        <v>48.00502652170318</v>
+        <v>20.48714033979912</v>
       </c>
       <c r="H11">
-        <v>13.31740269364169</v>
+        <v>8.187167559039018</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>6.45233888486935</v>
       </c>
       <c r="J11">
-        <v>5.518357463227373</v>
+        <v>5.944071345817621</v>
       </c>
       <c r="K11">
-        <v>26.29226934326286</v>
+        <v>7.399883412396243</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.77440077612605</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>11.14935680013588</v>
+        <v>17.86045357662609</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>130.3871170135506</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>10.78149616959946</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.366682417373914</v>
+        <v>9.895774004942842</v>
       </c>
       <c r="D12">
-        <v>4.845067473148801</v>
+        <v>5.52888081017274</v>
       </c>
       <c r="E12">
-        <v>7.819599551226957</v>
+        <v>26.09178676010811</v>
       </c>
       <c r="F12">
-        <v>35.18847828001471</v>
+        <v>15.95019266760918</v>
       </c>
       <c r="G12">
-        <v>48.5303559056252</v>
+        <v>19.59829037839922</v>
       </c>
       <c r="H12">
-        <v>13.3930907737752</v>
+        <v>8.918470037959089</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>6.583355834546498</v>
       </c>
       <c r="J12">
-        <v>5.512711379091676</v>
+        <v>5.6025942027794</v>
       </c>
       <c r="K12">
-        <v>26.64450454858138</v>
+        <v>6.839485438289163</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.03931477587498</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>11.06875406150034</v>
+        <v>19.20936838287995</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>132.4869730610014</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>10.38220622688483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.339452716843443</v>
+        <v>10.67530172640593</v>
       </c>
       <c r="D13">
-        <v>4.83898753608015</v>
+        <v>5.702329871968579</v>
       </c>
       <c r="E13">
-        <v>7.813521407886226</v>
+        <v>27.75009180686777</v>
       </c>
       <c r="F13">
-        <v>35.11949474883414</v>
+        <v>15.12653492988585</v>
       </c>
       <c r="G13">
-        <v>48.41710929286698</v>
+        <v>18.23847049955695</v>
       </c>
       <c r="H13">
-        <v>13.37669220919049</v>
+        <v>9.59247487284904</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>6.572397559782132</v>
       </c>
       <c r="J13">
-        <v>5.513906163736464</v>
+        <v>5.276534971271931</v>
       </c>
       <c r="K13">
-        <v>26.56892463589116</v>
+        <v>6.11985929814802</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.98246983037642</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>11.08611567973407</v>
+        <v>20.22038855021117</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>132.038406633156</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>9.726098692677461</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.25029871982966</v>
+        <v>11.21934695745804</v>
       </c>
       <c r="D14">
-        <v>4.819149732619517</v>
+        <v>5.801480434622238</v>
       </c>
       <c r="E14">
-        <v>7.793800732794205</v>
+        <v>28.73907635569297</v>
       </c>
       <c r="F14">
-        <v>34.8950108791413</v>
+        <v>14.37068983814592</v>
       </c>
       <c r="G14">
-        <v>48.04819733625652</v>
+        <v>17.02832843474453</v>
       </c>
       <c r="H14">
-        <v>13.32358567089665</v>
+        <v>10.06882732904467</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>6.50079888209646</v>
       </c>
       <c r="J14">
-        <v>5.517883443941962</v>
+        <v>5.05504055173716</v>
       </c>
       <c r="K14">
-        <v>26.32137450826851</v>
+        <v>5.508211610562342</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.796289812315</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>11.14272649852904</v>
+        <v>20.79430987320322</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>130.5695446066565</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>9.129746948593048</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.195417404424127</v>
+        <v>11.35258728508488</v>
       </c>
       <c r="D15">
-        <v>4.806991132123692</v>
+        <v>5.81526664705744</v>
       </c>
       <c r="E15">
-        <v>7.781798933134136</v>
+        <v>28.89009488268664</v>
       </c>
       <c r="F15">
-        <v>34.75788090954995</v>
+        <v>14.09740153863837</v>
       </c>
       <c r="G15">
-        <v>47.82254178412106</v>
+        <v>16.60014246091507</v>
       </c>
       <c r="H15">
-        <v>13.29134111182984</v>
+        <v>10.14148703639046</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>6.452151754133549</v>
       </c>
       <c r="J15">
-        <v>5.520381243538186</v>
+        <v>5.004678101616463</v>
       </c>
       <c r="K15">
-        <v>26.1689190516864</v>
+        <v>5.288293138341422</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.68163465679235</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>11.17739689641212</v>
+        <v>20.86155790345596</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>129.6697154523392</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>8.912681885023488</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.876689922421951</v>
+        <v>11.19628549247111</v>
       </c>
       <c r="D16">
-        <v>4.737209384071578</v>
+        <v>5.685245690638984</v>
       </c>
       <c r="E16">
-        <v>7.71420059919011</v>
+        <v>27.88395454863816</v>
       </c>
       <c r="F16">
-        <v>33.97773315263989</v>
+        <v>13.37928567886909</v>
       </c>
       <c r="G16">
-        <v>46.53417647546046</v>
+        <v>15.54580206372852</v>
       </c>
       <c r="H16">
-        <v>13.11085603041993</v>
+        <v>9.547873681301326</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>6.153515075830851</v>
       </c>
       <c r="J16">
-        <v>5.535618820978471</v>
+        <v>5.085605305853433</v>
       </c>
       <c r="K16">
-        <v>25.28249027298102</v>
+        <v>5.044767274100887</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.01506726795598</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>11.37606495428382</v>
+        <v>20.10479043170396</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>124.5329941053403</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>8.324033223107055</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.677330802053575</v>
+        <v>10.77637027355585</v>
       </c>
       <c r="D17">
-        <v>4.694314918083808</v>
+        <v>5.528068307095206</v>
       </c>
       <c r="E17">
-        <v>7.673771336634823</v>
+        <v>26.53804975926165</v>
       </c>
       <c r="F17">
-        <v>33.50419914262663</v>
+        <v>13.27375182477069</v>
       </c>
       <c r="G17">
-        <v>45.74806105000904</v>
+        <v>15.47078348314875</v>
       </c>
       <c r="H17">
-        <v>13.00389415730924</v>
+        <v>8.787417490802168</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>5.966503749050132</v>
       </c>
       <c r="J17">
-        <v>5.54576931529521</v>
+        <v>5.26786610633168</v>
       </c>
       <c r="K17">
-        <v>24.72715313637315</v>
+        <v>5.561142956708552</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.5975383515046</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>11.49800036674745</v>
+        <v>19.18781131862799</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>121.3970069545383</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>8.302969962919043</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.561233993251175</v>
+        <v>10.07229758348794</v>
       </c>
       <c r="D18">
-        <v>4.669615462643056</v>
+        <v>5.329071130350967</v>
       </c>
       <c r="E18">
-        <v>7.650895155772552</v>
+        <v>24.74693054905635</v>
       </c>
       <c r="F18">
-        <v>33.23369463314587</v>
+        <v>13.78338721979872</v>
       </c>
       <c r="G18">
-        <v>45.29748105231305</v>
+        <v>16.2660814543276</v>
       </c>
       <c r="H18">
-        <v>12.94372585390517</v>
+        <v>7.87698013968597</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>5.852708012752188</v>
       </c>
       <c r="J18">
-        <v>5.551894391013601</v>
+        <v>5.551771805305993</v>
       </c>
       <c r="K18">
-        <v>24.40343921534994</v>
+        <v>6.334326193354571</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.35417899005305</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>11.56818333874028</v>
+        <v>18.04004240992077</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>119.5956553666412</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>8.888919813464945</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.521677749364731</v>
+        <v>9.283796776394574</v>
       </c>
       <c r="D19">
-        <v>4.661248281572783</v>
+        <v>5.126691544590695</v>
       </c>
       <c r="E19">
-        <v>7.643214118531573</v>
+        <v>22.79181340192512</v>
       </c>
       <c r="F19">
-        <v>33.142426318369</v>
+        <v>14.61314483798353</v>
       </c>
       <c r="G19">
-        <v>45.14519444802283</v>
+        <v>17.59732962857619</v>
       </c>
       <c r="H19">
-        <v>12.92358368325558</v>
+        <v>7.128037438159939</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>5.810116913675358</v>
       </c>
       <c r="J19">
-        <v>5.554016738094381</v>
+        <v>5.876721968170398</v>
       </c>
       <c r="K19">
-        <v>24.29309167751159</v>
+        <v>7.217636971568949</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.27122678126823</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>11.59195698612769</v>
+        <v>16.81715839863232</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>118.9897631279511</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>9.641889297920676</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.69870048353572</v>
+        <v>8.18651306888461</v>
       </c>
       <c r="D20">
-        <v>4.698884063467826</v>
+        <v>4.909400988932355</v>
       </c>
       <c r="E20">
-        <v>7.678035913589324</v>
+        <v>20.53015037345268</v>
       </c>
       <c r="F20">
-        <v>33.55441525045998</v>
+        <v>16.20201026460531</v>
       </c>
       <c r="G20">
-        <v>45.83158198978605</v>
+        <v>20.32629966705396</v>
       </c>
       <c r="H20">
-        <v>13.01513973308873</v>
+        <v>7.058303040759184</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>5.961865818730878</v>
       </c>
       <c r="J20">
-        <v>5.544658916571918</v>
+        <v>6.341692321592607</v>
       </c>
       <c r="K20">
-        <v>24.78671335992406</v>
+        <v>8.500508903145972</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.64231605813194</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>11.48501566618552</v>
+        <v>15.51776552076958</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>121.7473407169426</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>10.88649237122538</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.276541938103449</v>
+        <v>8.055134649841426</v>
       </c>
       <c r="D21">
-        <v>4.82497812926998</v>
+        <v>5.058963229393617</v>
       </c>
       <c r="E21">
-        <v>7.799576955586665</v>
+        <v>21.67277228814807</v>
       </c>
       <c r="F21">
-        <v>34.96086944144163</v>
+        <v>17.62288739568369</v>
       </c>
       <c r="G21">
-        <v>48.15649023455801</v>
+        <v>22.49204446433597</v>
       </c>
       <c r="H21">
-        <v>13.33912484434729</v>
+        <v>8.066492135788382</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>6.487233684831375</v>
       </c>
       <c r="J21">
-        <v>5.516702332765584</v>
+        <v>6.401911897994641</v>
       </c>
       <c r="K21">
-        <v>26.3942573290452</v>
+        <v>8.682259258287322</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.85110320302383</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>11.12609981356804</v>
+        <v>16.47564751578243</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>131.0133007906168</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>11.76747963250008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.641961046974975</v>
+        <v>7.964840929697758</v>
       </c>
       <c r="D22">
-        <v>4.907067570524911</v>
+        <v>5.153092980422884</v>
       </c>
       <c r="E22">
-        <v>7.882475451097233</v>
+        <v>22.53466427584994</v>
       </c>
       <c r="F22">
-        <v>35.89674949687607</v>
+        <v>18.61200016171916</v>
       </c>
       <c r="G22">
-        <v>49.68999863695238</v>
+        <v>23.93990908995171</v>
       </c>
       <c r="H22">
-        <v>13.56353486451271</v>
+        <v>8.768918155278671</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>6.847865137288917</v>
       </c>
       <c r="J22">
-        <v>5.501165634917187</v>
+        <v>6.459567900914457</v>
       </c>
       <c r="K22">
-        <v>27.40785035581233</v>
+        <v>9.305515513291141</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.61349331629405</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>10.89136234970625</v>
+        <v>17.18462635056733</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>137.2008879324223</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>12.55048008686835</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.448023580837816</v>
+        <v>7.980126599570061</v>
       </c>
       <c r="D23">
-        <v>4.86328722422351</v>
+        <v>5.097736450825605</v>
       </c>
       <c r="E23">
-        <v>7.837908700449336</v>
+        <v>22.06077746239773</v>
       </c>
       <c r="F23">
-        <v>35.39571079866667</v>
+        <v>18.10648185306271</v>
       </c>
       <c r="G23">
-        <v>48.87022935553058</v>
+        <v>23.20370094902874</v>
       </c>
       <c r="H23">
-        <v>13.44257301913187</v>
+        <v>8.389675599553787</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>6.653504190515525</v>
       </c>
       <c r="J23">
-        <v>5.509198378525789</v>
+        <v>6.436186500117618</v>
       </c>
       <c r="K23">
-        <v>26.87020134708933</v>
+        <v>8.928304054452415</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.20907085330847</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>11.01669222993247</v>
+        <v>16.80758084417542</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>133.8799833209382</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>12.15098632478607</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.689043873940202</v>
+        <v>8.055524440674766</v>
       </c>
       <c r="D24">
-        <v>4.696818472973775</v>
+        <v>4.876972920789272</v>
       </c>
       <c r="E24">
-        <v>7.67610675586264</v>
+        <v>20.2963573421742</v>
       </c>
       <c r="F24">
-        <v>33.53170713933086</v>
+        <v>16.3241595215155</v>
       </c>
       <c r="G24">
-        <v>45.79381790898535</v>
+        <v>20.52858874166624</v>
       </c>
       <c r="H24">
-        <v>13.01005148632046</v>
+        <v>7.051571491731254</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>5.953834235378411</v>
       </c>
       <c r="J24">
-        <v>5.545160028289589</v>
+        <v>6.392531025589269</v>
       </c>
       <c r="K24">
-        <v>24.75980003589315</v>
+        <v>8.64827078653895</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.6220823970405</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>11.49088579159431</v>
+        <v>15.38963144704706</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>121.5997754933335</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>10.99984218555315</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.815412744181391</v>
+        <v>8.082017377177248</v>
       </c>
       <c r="D25">
-        <v>4.516263460266068</v>
+        <v>4.603149482904078</v>
       </c>
       <c r="E25">
-        <v>7.51596721851326</v>
+        <v>18.34821786415107</v>
       </c>
       <c r="F25">
-        <v>31.59250056296429</v>
+        <v>14.98876879320385</v>
       </c>
       <c r="G25">
-        <v>42.53638656546047</v>
+        <v>18.02195186272513</v>
       </c>
       <c r="H25">
-        <v>12.59491078786434</v>
+        <v>5.732394515499722</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>5.242108833578129</v>
       </c>
       <c r="J25">
-        <v>5.594829864417696</v>
+        <v>6.444951264349726</v>
       </c>
       <c r="K25">
-        <v>22.31842554990584</v>
+        <v>8.830047810706954</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.99414683462556</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>12.00453132351185</v>
+        <v>13.83253501049187</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>108.4178482258606</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>10.50404113153922</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_62/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.987907795718431</v>
+        <v>8.552818729519892</v>
       </c>
       <c r="D2">
-        <v>4.359925317546703</v>
+        <v>4.497279387537605</v>
       </c>
       <c r="E2">
-        <v>16.79650981721037</v>
+        <v>17.0028563199109</v>
       </c>
       <c r="F2">
-        <v>14.22098800537944</v>
+        <v>13.96848801319158</v>
       </c>
       <c r="G2">
-        <v>16.70200397352145</v>
+        <v>15.68454037408789</v>
       </c>
       <c r="H2">
-        <v>4.816350457641773</v>
+        <v>4.66558427985572</v>
       </c>
       <c r="I2">
-        <v>4.733134793938761</v>
+        <v>4.547655119790011</v>
       </c>
       <c r="J2">
-        <v>6.568768270221807</v>
+        <v>7.418620573579861</v>
       </c>
       <c r="K2">
-        <v>9.227144468717714</v>
+        <v>9.18002338146287</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>9.853387738748891</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>4.084958926114284</v>
       </c>
       <c r="N2">
-        <v>12.63571578932035</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>98.41868532878546</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>12.63741468217534</v>
       </c>
       <c r="Q2">
-        <v>10.36270106887598</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>98.36937132340941</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>10.25910358686424</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.963046330884546</v>
+        <v>8.369968500243029</v>
       </c>
       <c r="D3">
-        <v>4.191110872398277</v>
+        <v>4.302955417812335</v>
       </c>
       <c r="E3">
-        <v>15.70574314097223</v>
+        <v>15.87383864695998</v>
       </c>
       <c r="F3">
-        <v>13.73140754371707</v>
+        <v>13.56647233231217</v>
       </c>
       <c r="G3">
-        <v>15.86098354731625</v>
+        <v>14.88929432835108</v>
       </c>
       <c r="H3">
-        <v>4.209815338168578</v>
+        <v>4.093454133834505</v>
       </c>
       <c r="I3">
-        <v>4.389444837488974</v>
+        <v>4.246840436904828</v>
       </c>
       <c r="J3">
-        <v>6.667355410114824</v>
+        <v>7.491405118382888</v>
       </c>
       <c r="K3">
-        <v>9.533751176695809</v>
+        <v>9.525090397586155</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>10.13431565117969</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>4.121034835955609</v>
       </c>
       <c r="N3">
-        <v>11.77287195884433</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>91.34884637809321</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>11.76949287056286</v>
       </c>
       <c r="Q3">
-        <v>10.31096514554955</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>91.3176721098549</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>10.26478895588782</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.945808472679055</v>
+        <v>8.253842212461414</v>
       </c>
       <c r="D4">
-        <v>4.081804140903025</v>
+        <v>4.17730157454695</v>
       </c>
       <c r="E4">
-        <v>15.07770842276414</v>
+        <v>15.18896432352369</v>
       </c>
       <c r="F4">
-        <v>13.46307887691218</v>
+        <v>13.34677424166666</v>
       </c>
       <c r="G4">
-        <v>15.4028914000882</v>
+        <v>14.4593575344472</v>
       </c>
       <c r="H4">
-        <v>3.841240303835698</v>
+        <v>3.745727228046749</v>
       </c>
       <c r="I4">
-        <v>4.177651999704084</v>
+        <v>4.061410501925964</v>
       </c>
       <c r="J4">
-        <v>6.739311875718832</v>
+        <v>7.541386650529412</v>
       </c>
       <c r="K4">
-        <v>9.751302782090127</v>
+        <v>9.756293487889902</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>10.31043611695061</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>4.235303741522551</v>
       </c>
       <c r="N4">
-        <v>11.21694212567232</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>86.8375593245466</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>11.21120912612426</v>
       </c>
       <c r="Q4">
-        <v>10.31163773417048</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>86.81541167242793</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>10.29401397616752</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7.947480799535872</v>
+        <v>8.21500074361049</v>
       </c>
       <c r="D5">
-        <v>4.037811180032705</v>
+        <v>4.126427454919872</v>
       </c>
       <c r="E5">
-        <v>14.85749335090519</v>
+        <v>14.95771770413116</v>
       </c>
       <c r="F5">
-        <v>13.35280960778883</v>
+        <v>13.25534677560018</v>
       </c>
       <c r="G5">
-        <v>15.21407841742906</v>
+        <v>14.28206130857693</v>
       </c>
       <c r="H5">
-        <v>3.691203776381244</v>
+        <v>3.604171300871156</v>
       </c>
       <c r="I5">
-        <v>4.090843171683156</v>
+        <v>3.985608423193807</v>
       </c>
       <c r="J5">
-        <v>6.768798367398489</v>
+        <v>7.560805275383449</v>
       </c>
       <c r="K5">
-        <v>9.839397669970197</v>
+        <v>9.848409198134837</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>10.37797137018781</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>4.297384318368136</v>
       </c>
       <c r="N5">
-        <v>10.98247882814956</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>84.95308080811026</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>10.97598634653132</v>
       </c>
       <c r="Q5">
-        <v>10.31275797802385</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>84.93418256603505</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>10.3055414279784</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7.958777830360608</v>
+        <v>8.219785305258995</v>
       </c>
       <c r="D6">
-        <v>4.032738042203008</v>
+        <v>4.120138774687775</v>
       </c>
       <c r="E6">
-        <v>14.8261017865344</v>
+        <v>14.92437320843128</v>
       </c>
       <c r="F6">
-        <v>13.32438785030016</v>
+        <v>13.23036529602017</v>
       </c>
       <c r="G6">
-        <v>15.16368881029153</v>
+        <v>14.23365455881781</v>
       </c>
       <c r="H6">
-        <v>3.665900874192127</v>
+        <v>3.580295471324371</v>
       </c>
       <c r="I6">
-        <v>4.076402061210381</v>
+        <v>3.973301827673919</v>
       </c>
       <c r="J6">
-        <v>6.770904061865996</v>
+        <v>7.561451349222499</v>
       </c>
       <c r="K6">
-        <v>9.846079672376952</v>
+        <v>9.856311472258362</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>10.38290351465129</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>4.30343819395617</v>
       </c>
       <c r="N6">
-        <v>10.9418680452587</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>84.63721472651943</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>10.93529245711727</v>
       </c>
       <c r="Q6">
-        <v>10.30544389273705</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>84.61883729425283</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>10.30025872240921</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.975915261951724</v>
+        <v>8.279576636759934</v>
       </c>
       <c r="D7">
-        <v>4.087449823140225</v>
+        <v>4.186394757813913</v>
       </c>
       <c r="E7">
-        <v>15.08937296735579</v>
+        <v>15.19820240948161</v>
       </c>
       <c r="F7">
-        <v>13.43290044289286</v>
+        <v>13.30160857398257</v>
       </c>
       <c r="G7">
-        <v>15.34658294909759</v>
+        <v>14.50872692708658</v>
       </c>
       <c r="H7">
-        <v>3.838122336312913</v>
+        <v>3.742282143587656</v>
       </c>
       <c r="I7">
-        <v>4.176246464775233</v>
+        <v>4.060369918413442</v>
       </c>
       <c r="J7">
-        <v>6.731613351520056</v>
+        <v>7.494712619397875</v>
       </c>
       <c r="K7">
-        <v>9.729422162940248</v>
+        <v>9.729232366069663</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>10.28857559785286</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>4.214484868720452</v>
       </c>
       <c r="N7">
-        <v>11.21048313499271</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>86.8120801650101</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>11.20536630444045</v>
       </c>
       <c r="Q7">
-        <v>10.28990909370727</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>86.78987880226684</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>10.26149213917106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>8.019537767218916</v>
+        <v>8.516678730471812</v>
       </c>
       <c r="D8">
-        <v>4.310854894934553</v>
+        <v>4.451093680679275</v>
       </c>
       <c r="E8">
-        <v>16.44554603037189</v>
+        <v>16.63330372108597</v>
       </c>
       <c r="F8">
-        <v>14.00843888645944</v>
+        <v>13.73576861215769</v>
       </c>
       <c r="G8">
-        <v>16.33175429955473</v>
+        <v>15.66392625666849</v>
       </c>
       <c r="H8">
-        <v>4.604740597415542</v>
+        <v>4.46445519533284</v>
       </c>
       <c r="I8">
-        <v>4.613996690435058</v>
+        <v>4.442528435055363</v>
       </c>
       <c r="J8">
-        <v>6.589199988904689</v>
+        <v>7.299969107463236</v>
       </c>
       <c r="K8">
-        <v>9.293696953449032</v>
+        <v>9.240271204980944</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>9.910819938733882</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>4.025616822066485</v>
       </c>
       <c r="N8">
-        <v>12.33943640643637</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>96.01386027690693</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>12.34097171354514</v>
       </c>
       <c r="Q8">
-        <v>10.30863911750229</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>95.97086502215016</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>10.18741974055031</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.024956188938836</v>
+        <v>8.899969856475638</v>
       </c>
       <c r="D9">
-        <v>4.689547705382197</v>
+        <v>4.891910986337294</v>
       </c>
       <c r="E9">
-        <v>18.99235401159331</v>
+        <v>19.26575821298368</v>
       </c>
       <c r="F9">
-        <v>15.46200353862316</v>
+        <v>14.93059139014895</v>
       </c>
       <c r="G9">
-        <v>18.85468056764254</v>
+        <v>18.25728886015665</v>
       </c>
       <c r="H9">
-        <v>6.167553947124284</v>
+        <v>5.937299020144996</v>
       </c>
       <c r="I9">
-        <v>5.479026884015152</v>
+        <v>5.197774908144964</v>
       </c>
       <c r="J9">
-        <v>6.43193438588087</v>
+        <v>7.117860810229517</v>
       </c>
       <c r="K9">
-        <v>8.781077454482535</v>
+        <v>8.542785714500976</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>9.244752405332262</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>5.662691267840001</v>
       </c>
       <c r="N9">
-        <v>14.36896281090405</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>112.8867523264593</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>14.3884625016787</v>
       </c>
       <c r="Q9">
-        <v>10.6821369845934</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>112.780062733366</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>10.36253073208552</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.107116810529433</v>
+        <v>9.210579003599319</v>
       </c>
       <c r="D10">
-        <v>4.959225355830523</v>
+        <v>5.219395838688003</v>
       </c>
       <c r="E10">
-        <v>21.00365020280455</v>
+        <v>21.31625806721361</v>
       </c>
       <c r="F10">
-        <v>16.6431463121847</v>
+        <v>15.78388407807122</v>
       </c>
       <c r="G10">
-        <v>21.07747108461353</v>
+        <v>20.90031812228455</v>
       </c>
       <c r="H10">
-        <v>7.393840152563957</v>
+        <v>7.088079174459273</v>
       </c>
       <c r="I10">
-        <v>6.138722527611248</v>
+        <v>5.770178844661483</v>
       </c>
       <c r="J10">
-        <v>6.360002890036295</v>
+        <v>6.741743258396006</v>
       </c>
       <c r="K10">
-        <v>8.560489118956697</v>
+        <v>8.063197558014947</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.678323852273486</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>7.191744864299703</v>
       </c>
       <c r="N10">
-        <v>15.92126817774047</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>124.9033213601316</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>15.96172002179257</v>
       </c>
       <c r="Q10">
-        <v>11.08311393270242</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>124.719643679366</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>10.51846976969993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.083625858807515</v>
+        <v>10.11250845047748</v>
       </c>
       <c r="D11">
-        <v>5.299057043163831</v>
+        <v>5.591487765890713</v>
       </c>
       <c r="E11">
-        <v>23.97972694890492</v>
+        <v>24.23837300057236</v>
       </c>
       <c r="F11">
-        <v>16.4336313546781</v>
+        <v>15.22400832878196</v>
       </c>
       <c r="G11">
-        <v>20.48714033979912</v>
+        <v>21.46075094054502</v>
       </c>
       <c r="H11">
-        <v>8.187167559039018</v>
+        <v>7.852732594833965</v>
       </c>
       <c r="I11">
-        <v>6.45233888486935</v>
+        <v>6.03967372376175</v>
       </c>
       <c r="J11">
-        <v>5.944071345817621</v>
+        <v>5.899157048736701</v>
       </c>
       <c r="K11">
-        <v>7.399883412396243</v>
+        <v>6.854977659109716</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.898555164032678</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>7.404501897438305</v>
       </c>
       <c r="N11">
-        <v>17.86045357662609</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>130.3871170135506</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>17.91176981648939</v>
       </c>
       <c r="Q11">
-        <v>10.78149616959946</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>130.1537897842783</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>9.695507907213107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.895774004942842</v>
+        <v>10.81385336012954</v>
       </c>
       <c r="D12">
-        <v>5.52888081017274</v>
+        <v>5.825191389978338</v>
       </c>
       <c r="E12">
-        <v>26.09178676010811</v>
+        <v>26.30036586767648</v>
       </c>
       <c r="F12">
-        <v>15.95019266760918</v>
+        <v>14.69261246140079</v>
       </c>
       <c r="G12">
-        <v>19.59829037839922</v>
+        <v>21.16485360938849</v>
       </c>
       <c r="H12">
-        <v>8.918470037959089</v>
+        <v>8.588180788650588</v>
       </c>
       <c r="I12">
-        <v>6.583355834546498</v>
+        <v>6.151631842581402</v>
       </c>
       <c r="J12">
-        <v>5.6025942027794</v>
+        <v>5.44739218510385</v>
       </c>
       <c r="K12">
-        <v>6.839485438289163</v>
+        <v>5.968082078715463</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.425643413884379</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>7.367735748994157</v>
       </c>
       <c r="N12">
-        <v>19.20936838287995</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>132.4869730610014</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>19.26403317440935</v>
       </c>
       <c r="Q12">
-        <v>10.38220622688483</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>132.2309947753435</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>9.208949086494458</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.67530172640593</v>
+        <v>11.46705780632822</v>
       </c>
       <c r="D13">
-        <v>5.702329871968579</v>
+        <v>5.972125410002023</v>
       </c>
       <c r="E13">
-        <v>27.75009180686777</v>
+        <v>27.91083829793563</v>
       </c>
       <c r="F13">
-        <v>15.12653492988585</v>
+        <v>13.96299418178039</v>
       </c>
       <c r="G13">
-        <v>18.23847049955695</v>
+        <v>19.86122625574776</v>
       </c>
       <c r="H13">
-        <v>9.59247487284904</v>
+        <v>9.289522981604847</v>
       </c>
       <c r="I13">
-        <v>6.572397559782132</v>
+        <v>6.143094764087575</v>
       </c>
       <c r="J13">
-        <v>5.276534971271931</v>
+        <v>5.304845133333336</v>
       </c>
       <c r="K13">
-        <v>6.11985929814802</v>
+        <v>5.259599259813919</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.142898558484753</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>7.081620757883604</v>
       </c>
       <c r="N13">
-        <v>20.22038855021117</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>132.038406633156</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>20.27300299737522</v>
       </c>
       <c r="Q13">
-        <v>9.726098692677461</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>131.7864481692089</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>8.626569523347701</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>11.21934695745804</v>
+        <v>11.91608658711401</v>
       </c>
       <c r="D14">
-        <v>5.801480434622238</v>
+        <v>6.038845113579856</v>
       </c>
       <c r="E14">
-        <v>28.73907635569297</v>
+        <v>28.86679018175334</v>
       </c>
       <c r="F14">
-        <v>14.37068983814592</v>
+        <v>13.33737732567139</v>
       </c>
       <c r="G14">
-        <v>17.02832843474453</v>
+        <v>18.46656023899379</v>
       </c>
       <c r="H14">
-        <v>10.06882732904467</v>
+        <v>9.793752226834727</v>
       </c>
       <c r="I14">
-        <v>6.50079888209646</v>
+        <v>6.083021165372095</v>
       </c>
       <c r="J14">
-        <v>5.05504055173716</v>
+        <v>5.324878462070156</v>
       </c>
       <c r="K14">
-        <v>5.508211610562342</v>
+        <v>4.859318146890327</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>7.028097140345793</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>6.765362049733378</v>
       </c>
       <c r="N14">
-        <v>20.79430987320322</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>130.5695446066565</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>20.84380618511048</v>
       </c>
       <c r="Q14">
-        <v>9.129746948593048</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>130.3322534123303</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>8.133939585852223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>11.35258728508488</v>
+        <v>12.02360990593165</v>
       </c>
       <c r="D15">
-        <v>5.81526664705744</v>
+        <v>6.038756510312305</v>
       </c>
       <c r="E15">
-        <v>28.89009488268664</v>
+        <v>29.01003616940925</v>
       </c>
       <c r="F15">
-        <v>14.09740153863837</v>
+        <v>13.12493796735298</v>
       </c>
       <c r="G15">
-        <v>16.60014246091507</v>
+        <v>17.89804157649758</v>
       </c>
       <c r="H15">
-        <v>10.14148703639046</v>
+        <v>9.876865590760705</v>
       </c>
       <c r="I15">
-        <v>6.452151754133549</v>
+        <v>6.042146926267292</v>
       </c>
       <c r="J15">
-        <v>5.004678101616463</v>
+        <v>5.380865105451585</v>
       </c>
       <c r="K15">
-        <v>5.288293138341422</v>
+        <v>4.802488810727716</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>7.030299749384716</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>6.619878989999309</v>
       </c>
       <c r="N15">
-        <v>20.86155790345596</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>129.6697154523392</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>20.90940918277374</v>
       </c>
       <c r="Q15">
-        <v>8.912681885023488</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>129.4413515836118</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>7.966098678152791</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>11.19628549247111</v>
+        <v>11.84569782016388</v>
       </c>
       <c r="D16">
-        <v>5.685245690638984</v>
+        <v>5.859495587099894</v>
       </c>
       <c r="E16">
-        <v>27.88395454863816</v>
+        <v>28.00738648450008</v>
       </c>
       <c r="F16">
-        <v>13.37928567886909</v>
+        <v>12.69508791849306</v>
       </c>
       <c r="G16">
-        <v>15.54580206372852</v>
+        <v>16.02035409373159</v>
       </c>
       <c r="H16">
-        <v>9.547873681301326</v>
+        <v>9.316933132884346</v>
       </c>
       <c r="I16">
-        <v>6.153515075830851</v>
+        <v>5.787571168451685</v>
       </c>
       <c r="J16">
-        <v>5.085605305853433</v>
+        <v>5.860613144137027</v>
       </c>
       <c r="K16">
-        <v>5.044767274100887</v>
+        <v>5.241627546308607</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>7.325478751677744</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>5.963308469561445</v>
       </c>
       <c r="N16">
-        <v>20.10479043170396</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>124.5329941053403</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>20.14340960411741</v>
       </c>
       <c r="Q16">
-        <v>8.324033223107055</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>124.3514119010856</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>7.861481172060818</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.77637027355585</v>
+        <v>11.45186979918208</v>
       </c>
       <c r="D17">
-        <v>5.528068307095206</v>
+        <v>5.687339055020284</v>
       </c>
       <c r="E17">
-        <v>26.53804975926165</v>
+        <v>26.67991165303879</v>
       </c>
       <c r="F17">
-        <v>13.27375182477069</v>
+        <v>12.85915559353519</v>
       </c>
       <c r="G17">
-        <v>15.47078348314875</v>
+        <v>15.49668228098353</v>
       </c>
       <c r="H17">
-        <v>8.787417490802168</v>
+        <v>8.56656950315439</v>
       </c>
       <c r="I17">
-        <v>5.966503749050132</v>
+        <v>5.62702795489967</v>
       </c>
       <c r="J17">
-        <v>5.26786610633168</v>
+        <v>6.184262100678984</v>
       </c>
       <c r="K17">
-        <v>5.561142956708552</v>
+        <v>5.759064151685149</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>7.614855823757861</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>5.632208622328243</v>
       </c>
       <c r="N17">
-        <v>19.18781131862799</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>121.3970069545383</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>19.22081912708337</v>
       </c>
       <c r="Q17">
-        <v>8.302969962919043</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>121.239999106679</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>8.17509819957875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.07229758348794</v>
+        <v>10.82467658128224</v>
       </c>
       <c r="D18">
-        <v>5.329071130350967</v>
+        <v>5.494130761693871</v>
       </c>
       <c r="E18">
-        <v>24.74693054905635</v>
+        <v>24.92520009789866</v>
       </c>
       <c r="F18">
-        <v>13.78338721979872</v>
+        <v>13.40375907489218</v>
       </c>
       <c r="G18">
-        <v>16.2660814543276</v>
+        <v>15.97547937445376</v>
       </c>
       <c r="H18">
-        <v>7.87698013968597</v>
+        <v>7.648536401443621</v>
       </c>
       <c r="I18">
-        <v>5.852708012752188</v>
+        <v>5.527832098843867</v>
       </c>
       <c r="J18">
-        <v>5.551771805305993</v>
+        <v>6.480444484778437</v>
       </c>
       <c r="K18">
-        <v>6.334326193354571</v>
+        <v>6.427368349143022</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>7.967901491980762</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>5.594291451548779</v>
       </c>
       <c r="N18">
-        <v>18.04004240992077</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>119.5956553666412</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>18.0689101618824</v>
       </c>
       <c r="Q18">
-        <v>8.888919813464945</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>119.4516650385667</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>8.735583442977941</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.283796776394574</v>
+        <v>10.14353355485297</v>
       </c>
       <c r="D19">
-        <v>5.126691544590695</v>
+        <v>5.309823493157535</v>
       </c>
       <c r="E19">
-        <v>22.79181340192512</v>
+        <v>23.01820859389738</v>
       </c>
       <c r="F19">
-        <v>14.61314483798353</v>
+        <v>14.15830483791639</v>
       </c>
       <c r="G19">
-        <v>17.59732962857619</v>
+        <v>17.06879819503867</v>
       </c>
       <c r="H19">
-        <v>7.128037438159939</v>
+        <v>6.880876946307798</v>
       </c>
       <c r="I19">
-        <v>5.810116913675358</v>
+        <v>5.490884188655318</v>
       </c>
       <c r="J19">
-        <v>5.876721968170398</v>
+        <v>6.750864053576206</v>
       </c>
       <c r="K19">
-        <v>7.217636971568949</v>
+        <v>7.154101779539272</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>8.349729582437471</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>5.823453611194434</v>
       </c>
       <c r="N19">
-        <v>16.81715839863232</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>118.9897631279511</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>16.84402783369553</v>
       </c>
       <c r="Q19">
-        <v>9.641889297920676</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>118.8499885245521</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>9.408967395913169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.18651306888461</v>
+        <v>9.243403025140916</v>
       </c>
       <c r="D20">
-        <v>4.909400988932355</v>
+        <v>5.14261526803856</v>
       </c>
       <c r="E20">
-        <v>20.53015037345268</v>
+        <v>20.83616845964394</v>
       </c>
       <c r="F20">
-        <v>16.20201026460531</v>
+        <v>15.51608422797611</v>
       </c>
       <c r="G20">
-        <v>20.32629966705396</v>
+        <v>19.76058495434256</v>
       </c>
       <c r="H20">
-        <v>7.058303040759184</v>
+        <v>6.774876697323055</v>
       </c>
       <c r="I20">
-        <v>5.961865818730878</v>
+        <v>5.620797469258017</v>
       </c>
       <c r="J20">
-        <v>6.341692321592607</v>
+        <v>6.962589478218074</v>
       </c>
       <c r="K20">
-        <v>8.500508903145972</v>
+        <v>8.120372112896614</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>8.798015915070975</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>6.75248222754177</v>
       </c>
       <c r="N20">
-        <v>15.51776552076958</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>121.7473407169426</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>15.55114920329371</v>
       </c>
       <c r="Q20">
-        <v>10.88649237122538</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>121.5881124325614</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>10.43658548002042</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.055134649841426</v>
+        <v>9.229664252147433</v>
       </c>
       <c r="D21">
-        <v>5.058963229393617</v>
+        <v>5.398352813074752</v>
       </c>
       <c r="E21">
-        <v>21.67277228814807</v>
+        <v>21.99407725323064</v>
       </c>
       <c r="F21">
-        <v>17.62288739568369</v>
+        <v>16.22411209576173</v>
       </c>
       <c r="G21">
-        <v>22.49204446433597</v>
+        <v>23.63961951887581</v>
       </c>
       <c r="H21">
-        <v>8.066492135788382</v>
+        <v>7.712644464172361</v>
       </c>
       <c r="I21">
-        <v>6.487233684831375</v>
+        <v>6.067450373275529</v>
       </c>
       <c r="J21">
-        <v>6.401911897994641</v>
+        <v>5.997594551061982</v>
       </c>
       <c r="K21">
-        <v>8.682259258287322</v>
+        <v>7.857956754808243</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.378400742718961</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>7.950099643599658</v>
       </c>
       <c r="N21">
-        <v>16.47564751578243</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>131.0133007906168</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>16.53514875923362</v>
       </c>
       <c r="Q21">
-        <v>11.76747963250008</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>130.771759013156</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>10.56985538324221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.964840929697758</v>
+        <v>9.204202596657257</v>
       </c>
       <c r="D22">
-        <v>5.153092980422884</v>
+        <v>5.563508060993301</v>
       </c>
       <c r="E22">
-        <v>22.53466427584994</v>
+        <v>22.85976867367168</v>
       </c>
       <c r="F22">
-        <v>18.61200016171916</v>
+        <v>16.87795870647206</v>
       </c>
       <c r="G22">
-        <v>23.93990908995171</v>
+        <v>26.21619378842138</v>
       </c>
       <c r="H22">
-        <v>8.768918155278671</v>
+        <v>8.364491879876544</v>
       </c>
       <c r="I22">
-        <v>6.847865137288917</v>
+        <v>6.372757991287248</v>
       </c>
       <c r="J22">
-        <v>6.459567900914457</v>
+        <v>5.355135296306905</v>
       </c>
       <c r="K22">
-        <v>9.305515513291141</v>
+        <v>7.724308110882615</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.087219178584894</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>8.747425089264205</v>
       </c>
       <c r="N22">
-        <v>17.18462635056733</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>137.2008879324223</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>17.2624207619894</v>
       </c>
       <c r="Q22">
-        <v>12.55048008686835</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>136.8864086256126</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>10.97942763703997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.980126599570061</v>
+        <v>9.196046563022078</v>
       </c>
       <c r="D23">
-        <v>5.097736450825605</v>
+        <v>5.462445556669802</v>
       </c>
       <c r="E23">
-        <v>22.06077746239773</v>
+        <v>22.38739238893909</v>
       </c>
       <c r="F23">
-        <v>18.10648185306271</v>
+        <v>16.58557782758152</v>
       </c>
       <c r="G23">
-        <v>23.20370094902874</v>
+        <v>24.68575925009098</v>
       </c>
       <c r="H23">
-        <v>8.389675599553787</v>
+        <v>8.013583629138395</v>
       </c>
       <c r="I23">
-        <v>6.653504190515525</v>
+        <v>6.208297012114323</v>
       </c>
       <c r="J23">
-        <v>6.436186500117618</v>
+        <v>5.791572555606331</v>
       </c>
       <c r="K23">
-        <v>8.928304054452415</v>
+        <v>7.841793647214193</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.269680932763061</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>8.348741534606168</v>
       </c>
       <c r="N23">
-        <v>16.80758084417542</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>133.8799833209382</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>16.87444406133051</v>
       </c>
       <c r="Q23">
-        <v>12.15098632478607</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>133.6073175151899</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>10.76184396631175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.055524440674766</v>
+        <v>9.120840296834935</v>
       </c>
       <c r="D24">
-        <v>4.876972920789272</v>
+        <v>5.11158025240068</v>
       </c>
       <c r="E24">
-        <v>20.2963573421742</v>
+        <v>20.60774108589732</v>
       </c>
       <c r="F24">
-        <v>16.3241595215155</v>
+        <v>15.63258940903289</v>
       </c>
       <c r="G24">
-        <v>20.52858874166624</v>
+        <v>19.92497149973315</v>
       </c>
       <c r="H24">
-        <v>7.051571491731254</v>
+        <v>6.768810360311325</v>
       </c>
       <c r="I24">
-        <v>5.953834235378411</v>
+        <v>5.612266627382077</v>
       </c>
       <c r="J24">
-        <v>6.392531025589269</v>
+        <v>7.011584291569928</v>
       </c>
       <c r="K24">
-        <v>8.64827078653895</v>
+        <v>8.251244715668324</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>8.873376901661597</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>6.808331535269094</v>
       </c>
       <c r="N24">
-        <v>15.38963144704706</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>121.5997754933335</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>15.42279377233356</v>
       </c>
       <c r="Q24">
-        <v>10.99984218555315</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>121.4414435722014</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>10.54320662611853</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.082017377177248</v>
+        <v>8.862808993282501</v>
       </c>
       <c r="D25">
-        <v>4.603149482904078</v>
+        <v>4.784214579257857</v>
       </c>
       <c r="E25">
-        <v>18.34821786415107</v>
+        <v>18.60143536291502</v>
       </c>
       <c r="F25">
-        <v>14.98876879320385</v>
+        <v>14.55488517098507</v>
       </c>
       <c r="G25">
-        <v>18.02195186272513</v>
+        <v>17.22671328229842</v>
       </c>
       <c r="H25">
-        <v>5.732394515499722</v>
+        <v>5.528070283215464</v>
       </c>
       <c r="I25">
-        <v>5.242108833578129</v>
+        <v>4.993046847485041</v>
       </c>
       <c r="J25">
-        <v>6.444951264349726</v>
+        <v>7.206518472133101</v>
       </c>
       <c r="K25">
-        <v>8.830047810706954</v>
+        <v>8.672534786150742</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>9.403633447306134</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>5.042363192066246</v>
       </c>
       <c r="N25">
-        <v>13.83253501049187</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>108.4178482258606</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>13.84580005622536</v>
       </c>
       <c r="Q25">
-        <v>10.50404113153922</v>
+        <v>108.3323335102073</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>10.26452547650184</v>
       </c>
     </row>
   </sheetData>
